--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43856</v>
+      </c>
+      <c r="E7" s="2">
         <v>43765</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43674</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43583</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43492</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43401</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43310</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43219</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43128</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2384400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2501500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2290700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2344700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2360400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2524700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2359100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2330600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2331300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2492600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2207400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2187300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2280200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2007800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1857300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1875600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1872000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1991400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1904100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1837700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1829100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1981100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1755000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1700400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1727900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>468400</v>
+      </c>
+      <c r="E10" s="3">
         <v>493700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>433400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>469100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>488400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>533300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>455000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>492900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>502200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>511500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>452400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>486900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>552300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +986,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -986,11 +1006,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>17300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -998,23 +1018,26 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2103900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2180500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2034000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2032400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2054100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2205100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2102500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2028800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2024700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2163200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1927700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1871300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1924900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E18" s="3">
         <v>321000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>256700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>312300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>306300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>319600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>256600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>301800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>306600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>329400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>279700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>316000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>355300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>343100</v>
+      </c>
+      <c r="E21" s="3">
         <v>369800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>305700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>364400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>353100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>368600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>307000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>345100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>349000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>368400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>313900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>350900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>389100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>290200</v>
+      </c>
+      <c r="E23" s="3">
         <v>323700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>261000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>318000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>307000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>321500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>257700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>296900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>305200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>330000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>278000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>315800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>354800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E24" s="3">
         <v>68100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>132900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>47400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>59400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>111600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>95500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>104900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>119500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E26" s="3">
         <v>255600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>199400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>282600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>241500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>188600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>210400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>237500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>240400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>218400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>182600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>210900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>235300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E27" s="3">
         <v>255500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>199400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>282400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>241400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>188500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>210200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>237400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>240300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>218200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>182500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>210900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>235100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,20 +1652,20 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>72900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>11000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>5800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>62800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E33" s="3">
         <v>255500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>199400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>282400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>241400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>261400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>221200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>243200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>303100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>218200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>182500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>210900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>235100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E35" s="3">
         <v>255500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>199400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>282400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>241400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>261400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>221200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>243200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>303100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>218200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>182500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>210900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>235100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43856</v>
+      </c>
+      <c r="E38" s="2">
         <v>43765</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43674</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43583</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43492</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43401</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43310</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43219</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43128</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,66 +2053,70 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>724400</v>
+      </c>
+      <c r="E41" s="3">
         <v>672900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>560200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>639300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>512700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>459100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>269000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>261600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>385800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>444100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>633300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>548900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>609800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E42" s="3">
         <v>14700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2037,8 +2127,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,316 +2145,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>562700</v>
+      </c>
+      <c r="E43" s="3">
         <v>594300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>529300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>537700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>565200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>604400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>563800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>554300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>569300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>640700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>549000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>567300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>530900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1057300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1042400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1108500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1030600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>994400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>963500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1001000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1011200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>973200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>921000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1013200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>988400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>958100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E45" s="3">
         <v>37100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2395000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2361400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2246000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2250700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2050100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1854300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1850800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1948300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2026500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2217100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2125800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2119600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E47" s="3">
         <v>289200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>279300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>276500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>277800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>273200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>276500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>265600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>262100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>242400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>248100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>246800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>243900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1755500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1629100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1516400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1494600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1483700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1512600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1410300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1353900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1293100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1203300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1054100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1043600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1035300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3515900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3515500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3525400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3527000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3921700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3921300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3971500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3983300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3980800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3146800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2705400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2707400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2709500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E52" s="3">
         <v>313800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>387500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>387000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>371500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>385100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>382800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>376300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>374600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>356900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>283300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>262100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>258200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8290100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8109000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7954600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7935700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8155400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8142300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7895400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7829700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7858800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6975900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6508000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6385700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6366400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2749,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>487700</v>
+      </c>
+      <c r="E57" s="3">
         <v>587200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>512100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>521700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>504300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>618800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>489000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>465600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>532800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>552700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>421200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>372400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>387700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>8300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2677,23 +2811,23 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>374900</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>95000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>185000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>255000</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -2704,104 +2838,113 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>527100</v>
+      </c>
+      <c r="E59" s="3">
         <v>517800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>560900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>530000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>556700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>520100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>512900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>497900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>535700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>505500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>456600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>452200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>532100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1023100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1105000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1073100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1051700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1435800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1138900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1096800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1148500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1323500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1058200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>877800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>824600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>919800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>250000</v>
+        <v>309000</v>
       </c>
       <c r="E61" s="3">
         <v>250000</v>
@@ -2813,7 +2956,7 @@
         <v>250000</v>
       </c>
       <c r="H61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="I61" s="3">
         <v>624800</v>
@@ -2822,10 +2965,10 @@
         <v>624800</v>
       </c>
       <c r="K61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="L61" s="3">
         <v>624700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>250000</v>
       </c>
       <c r="M61" s="3">
         <v>250000</v>
@@ -2839,52 +2982,58 @@
       <c r="P61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E62" s="3">
         <v>828400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>740200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>732300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>763800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>773700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>778000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>764900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>755200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>728000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>627000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>624700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>621300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2198300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2187500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2067500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2038400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2453700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2541500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2503800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2542500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2707500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2040000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1758300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1702600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1794400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6246600</v>
+      </c>
+      <c r="E72" s="3">
         <v>6128200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5984300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6003600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5856000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5730000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5615100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5504200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5366500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5162600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5033900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4974500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4866400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6091800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5921500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5887100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5897300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5701700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5600800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5391600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5287200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5151300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4935900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4749700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4683100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4572000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43856</v>
+      </c>
+      <c r="E80" s="2">
         <v>43765</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43674</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43583</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43492</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43401</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43310</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43219</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43128</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E81" s="3">
         <v>255500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>199400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>282400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>241400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>261400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>221200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>243200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>303100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>218200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>182500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>210900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>235100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E83" s="3">
         <v>43000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>40800</v>
       </c>
       <c r="I83" s="3">
         <v>40800</v>
       </c>
       <c r="J83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K83" s="3">
         <v>41200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E89" s="3">
         <v>350100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>207300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>178200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>187400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>498500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>299900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>304200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>502500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>250800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>195200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-139600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-66600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-145600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-102800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-87500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-102800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-134800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>426500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-139400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-81200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-905300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-610900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>105600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-112100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-112700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-112200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-100100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-99600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-99400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-99300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-89800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-89900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-215500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-481600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-128900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-165600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-178600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-182300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>538200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-77600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-125100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-82200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3300</v>
       </c>
       <c r="H101" s="3">
         <v>-3300</v>
       </c>
       <c r="I101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E102" s="3">
         <v>112700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-79100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>126600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>190200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-124200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-58300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-189200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>84400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-60900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>194700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43947</v>
+      </c>
+      <c r="E7" s="2">
         <v>43856</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43765</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43674</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43583</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43492</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43401</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43310</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43219</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43128</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43037</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42946</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42764</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2422500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2384400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2501500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2290700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2344700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2360400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2524700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2359100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2330600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2331300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2492600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2207400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2187300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2280200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1945100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1916000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2007800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1857300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1875600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1872000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1991400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1904100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1837700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1829100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1981100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1755000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1727900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>477400</v>
+      </c>
+      <c r="E10" s="3">
         <v>468400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>493700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>433400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>469100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>488400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>533300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>455000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>492900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>502200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>511500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>452400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>486900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>552300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1009,11 +1028,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>17300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1021,23 +1040,26 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2129000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2103900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2180500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2034000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2032400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2054100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2205100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2102500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2028800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2024700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2163200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1927700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1871300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1924900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>293500</v>
+      </c>
+      <c r="E18" s="3">
         <v>280500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>321000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>256700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>312300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>306300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>319600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>256600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>301800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>306600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>329400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>279700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>316000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>355300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>13300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E21" s="3">
         <v>343100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>369800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>305700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>364400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>353100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>368600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>307000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>345100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>349000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>368400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>313900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>350900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>389100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3000</v>
       </c>
       <c r="P22" s="3">
         <v>3000</v>
       </c>
       <c r="Q22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E23" s="3">
         <v>290200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>323700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>261000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>318000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>307000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>321500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>257700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>296900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>305200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>330000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>278000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>315800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>354800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E24" s="3">
         <v>47200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>68100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>132900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>111600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>95500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>104900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>119500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E26" s="3">
         <v>243000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>255600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>199400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>282600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>241500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>188600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>210400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>237500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>240400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>218400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>182600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>210900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>235300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E27" s="3">
         <v>242900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>255500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>199400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>282400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>241400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>188500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>210200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>237400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>240300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>218200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>182500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>210900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>235100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,20 +1715,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>72900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>11000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>62800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E33" s="3">
         <v>242900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>255500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>199400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>282400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>241400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>261400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>221200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>243200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>303100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>218200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>182500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>210900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>235100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E35" s="3">
         <v>242900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>255500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>199400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>282400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>241400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>261400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>221200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>243200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>303100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>218200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>182500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>210900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>235100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43947</v>
+      </c>
+      <c r="E38" s="2">
         <v>43856</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43765</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43674</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43583</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43492</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43401</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43310</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43219</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43128</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43037</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42946</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42764</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,72 +2139,76 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>606100</v>
+      </c>
+      <c r="E41" s="3">
         <v>724400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>672900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>560200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>639300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>512700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>459100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>269000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>261600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>385800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>444100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>633300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>548900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>609800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E42" s="3">
         <v>14800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2130,8 +2219,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2148,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>536400</v>
+      </c>
+      <c r="E43" s="3">
         <v>562700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>594300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>529300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>537700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>565200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>604400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>563800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>554300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>569300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>640700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>549000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>567300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>530900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1057300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1042400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1108500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1030600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>994400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>963500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1001000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1011200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>973200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>921000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1013200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>988400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>958100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E45" s="3">
         <v>35800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2248900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2395000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2361400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2246000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2250700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2050100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1854300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1850800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1948300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2026500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2217100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2125800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2119600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>303200</v>
+      </c>
+      <c r="E47" s="3">
         <v>290800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>289200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>279300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>276500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>277800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>273200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>276500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>265600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>262100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>242400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>248100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>246800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>243900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1809200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1755500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1629100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1516400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1494600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1483700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1512600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1410300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1353900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1293100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1203300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1054100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1043600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1035300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3706800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3515900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3515500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3525400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3527000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3921700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3921300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3971500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3983300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3980800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3146800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2705400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2707400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2709500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>327100</v>
+      </c>
+      <c r="E52" s="3">
         <v>333000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>313800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>387500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>387000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>371500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>385100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>382800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>376300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>374600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>356900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>283300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>262100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>258200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8395200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8290100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8109000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7954600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7935700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8155400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8142300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7895400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7829700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7858800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6975900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6508000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6385700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6366400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,63 +2879,67 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>496500</v>
+      </c>
+      <c r="E57" s="3">
         <v>487700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>587200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>512100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>521700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>504300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>618800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>489000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>465600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>532800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>552700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>421200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>372400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>387700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E58" s="3">
         <v>8300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2814,23 +2947,23 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>374900</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>95000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>185000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>255000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2841,113 +2974,122 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E59" s="3">
         <v>527100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>517800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>560900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>530000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>556700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>520100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>512900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>497900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>535700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>505500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>456600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>452200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>532100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1324600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1023100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1105000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1073100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1051700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1435800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1138900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1096800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1148500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1323500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1058200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>877800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>824600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>919800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E61" s="3">
         <v>309000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>250000</v>
       </c>
       <c r="F61" s="3">
         <v>250000</v>
@@ -2959,7 +3101,7 @@
         <v>250000</v>
       </c>
       <c r="I61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="J61" s="3">
         <v>624800</v>
@@ -2968,10 +3110,10 @@
         <v>624800</v>
       </c>
       <c r="L61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="M61" s="3">
         <v>624700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>250000</v>
       </c>
       <c r="N61" s="3">
         <v>250000</v>
@@ -2985,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>847500</v>
+      </c>
+      <c r="E62" s="3">
         <v>862000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>828400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>740200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>732300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>763800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>773700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>778000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>764900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>755200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>728000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>627000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>624700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>621300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2233100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2198300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2187500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2067500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2038400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2453700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2541500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2503800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2542500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2707500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2040000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1758300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1702600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1794400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6336900</v>
+      </c>
+      <c r="E72" s="3">
         <v>6246600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6128200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5984300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6003600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5856000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5730000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5615100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5504200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5366500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5162600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5033900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4974500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4866400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6162100</v>
+      </c>
+      <c r="E76" s="3">
         <v>6091800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5921500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5887100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5897300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5701700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5600800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5391600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5287200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5151300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4935900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4749700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4683100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4572000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43947</v>
+      </c>
+      <c r="E80" s="2">
         <v>43856</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43765</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43674</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43583</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43492</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43401</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43310</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43219</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43128</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43037</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42946</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42764</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E81" s="3">
         <v>242900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>255500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>199400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>282400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>241400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>261400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>221200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>243200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>303100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>218200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>182500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>210900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>235100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E83" s="3">
         <v>49300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>40800</v>
       </c>
       <c r="J83" s="3">
         <v>40800</v>
       </c>
       <c r="K83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="L83" s="3">
         <v>41200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E89" s="3">
         <v>188400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>350100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>207300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>178200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>187400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>498500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>299900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>139200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>304200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>502500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>250800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>195200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-139600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-145600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-102800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-87500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-102800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-75800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-362600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-60500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-134800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>426500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-139400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-109500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-905300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-610900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>105600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-112200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-112100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-112700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-112200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-100100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-99600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-99400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-99300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-89800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-89800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-89900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-215500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-481600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-128900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-165600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-178600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-182300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>538200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-77600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-125100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-104300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-82200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-3300</v>
       </c>
       <c r="I101" s="3">
         <v>-3300</v>
       </c>
       <c r="J101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-118300</v>
+      </c>
+      <c r="E102" s="3">
         <v>51500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>112700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-79100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>126600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>53600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>190200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-124200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-58300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-189200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>84400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-60900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>194700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44038</v>
+      </c>
+      <c r="E7" s="2">
         <v>43947</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43856</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43765</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43674</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43583</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43492</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43401</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43310</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43219</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43128</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2381500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2422500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2384400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2501500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2290700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2344700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2360400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2524700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2359100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2330600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2331300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2492600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2207400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2187300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2280200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1959000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1945100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1916000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2007800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1857300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1875600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1872000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1991400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1904100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1837700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1829100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1981100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1755000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1700400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1727900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>422500</v>
+      </c>
+      <c r="E10" s="3">
         <v>477400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>468400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>493700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>433400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>469100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>488400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>533300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>455000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>492900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>502200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>511500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>452400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>486900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>552300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,11 +1039,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1031,11 +1051,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>17300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1043,23 +1063,26 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2131900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2129000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2103900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2180500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2034000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2032400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2054100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2205100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2102500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2028800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2024700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2163200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1927700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1871300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1924900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E18" s="3">
         <v>293500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>280500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>321000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>256700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>312300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>306300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>319600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>256600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>301800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>306600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>329400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>279700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>316000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>355300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E21" s="3">
         <v>340600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>343100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>369800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>305700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>364400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>353100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>368600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>307000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>345100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>349000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>368400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>313900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>350900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>389100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3000</v>
       </c>
       <c r="Q22" s="3">
         <v>3000</v>
       </c>
       <c r="R22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>259400</v>
+      </c>
+      <c r="E23" s="3">
         <v>286500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>290200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>323700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>261000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>318000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>307000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>321500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>257700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>296900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>305200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>330000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>278000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>315800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>354800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E24" s="3">
         <v>58900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>47200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>68100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>132900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>111600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>95500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>104900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>119500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E26" s="3">
         <v>227600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>243000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>255600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>199400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>282600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>241500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>188600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>210400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>237500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>240400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>218400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>182600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>210900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>235300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E27" s="3">
         <v>227700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>242900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>255500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>199400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>282400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>241400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>188500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>210200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>237400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>240300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>218200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>182500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>210900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>235100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,20 +1779,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>72900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>11000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>62800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E33" s="3">
         <v>227700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>242900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>255500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>199400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>282400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>241400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>261400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>221200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>243200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>303100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>218200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>182500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>210900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>235100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E35" s="3">
         <v>227700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>242900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>255500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>199400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>282400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>241400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>261400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>221200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>243200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>303100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>218200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>182500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>210900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>235100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44038</v>
+      </c>
+      <c r="E38" s="2">
         <v>43947</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43856</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43765</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43674</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43583</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43492</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43401</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43310</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43219</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43128</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,78 +2226,82 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1729400</v>
+      </c>
+      <c r="E41" s="3">
         <v>606100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>724400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>672900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>560200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>639300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>512700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>459100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>261600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>385800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>444100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>633300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>548900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>609800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E42" s="3">
         <v>16800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6700</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2222,8 +2312,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>649600</v>
+      </c>
+      <c r="E43" s="3">
         <v>536400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>562700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>594300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>529300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>537700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>565200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>604400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>563800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>554300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>569300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>640700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>549000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>567300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>530900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>982400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1049000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1057300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1042400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1108500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1030600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>994400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>963500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1001000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1011200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>973200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>921000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1013200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>988400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>958100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E45" s="3">
         <v>40600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3409800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2248900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2395000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2361400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2246000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2250700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2050100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1854300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1850800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1948300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2026500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2217100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2125800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2119600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>298600</v>
+      </c>
+      <c r="E47" s="3">
         <v>303200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>290800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>289200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>279300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>276500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>277800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>273200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>276500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>265600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>262100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>242400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>248100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>246800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>243900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1855800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1809200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1755500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1629100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1516400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1494600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1483700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1512600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1410300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1353900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1293100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1203300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1054100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1043600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1035300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3696200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3706800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3515900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3515500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3525400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3527000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3921700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3921300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3971500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3983300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3980800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3146800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2705400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2707400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2709500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>340100</v>
+      </c>
+      <c r="E52" s="3">
         <v>327100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>333000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>313800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>387500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>387000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>371500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>385100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>382800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>376300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>374600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>356900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>283300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>262100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>258200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9600500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8395200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8290100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8109000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7954600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7935700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8155400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8142300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7895400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7829700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7858800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6975900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6508000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6385700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6366400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,69 +3010,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>537500</v>
+      </c>
+      <c r="E57" s="3">
         <v>496500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>487700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>587200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>512100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>521700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>504300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>618800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>489000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>465600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>532800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>552700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>421200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>372400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>387700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="E58" s="3">
         <v>258300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2950,23 +3084,23 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>374900</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>95000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>185000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>255000</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2977,122 +3111,131 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>630800</v>
+      </c>
+      <c r="E59" s="3">
         <v>569800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>527100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>517800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>560900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>530000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>556700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>520100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>512900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>497900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>535700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>505500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>456600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>452200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>532100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1427100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1324600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1023100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1105000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1073100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1051700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1435800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1138900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1096800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1148500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1323500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1058200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>877800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>824600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>919800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="E61" s="3">
         <v>56900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>309000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>250000</v>
       </c>
       <c r="G61" s="3">
         <v>250000</v>
@@ -3104,7 +3247,7 @@
         <v>250000</v>
       </c>
       <c r="J61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="K61" s="3">
         <v>624800</v>
@@ -3113,10 +3256,10 @@
         <v>624800</v>
       </c>
       <c r="M61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="N61" s="3">
         <v>624700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>250000</v>
       </c>
       <c r="O61" s="3">
         <v>250000</v>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>854900</v>
+      </c>
+      <c r="E62" s="3">
         <v>847500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>862000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>828400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>740200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>732300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>763800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>773700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>778000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>764900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>755200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>728000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>627000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>624700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>621300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2233100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2198300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2187500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2067500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2038400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2453700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2541500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2503800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2542500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2707500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2040000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1758300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1702600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1794400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6414800</v>
+      </c>
+      <c r="E72" s="3">
         <v>6336900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6246600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6128200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5984300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6003600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5856000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5730000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5615100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5504200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5366500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5162600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5033900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4974500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4866400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6267400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6162100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6091800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5921500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5887100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5897300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5701700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5600800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5391600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5287200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5151300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4935900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4749700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4683100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4572000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44038</v>
+      </c>
+      <c r="E80" s="2">
         <v>43947</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43856</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43765</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43674</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43583</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43492</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43401</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43310</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43219</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43128</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E81" s="3">
         <v>227700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>242900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>255500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>199400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>282400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>241400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>261400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>221200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>243200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>303100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>218200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>182500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>210900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>235100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E83" s="3">
         <v>50600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>40800</v>
       </c>
       <c r="K83" s="3">
         <v>40800</v>
       </c>
       <c r="L83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="M83" s="3">
         <v>41200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E89" s="3">
         <v>359900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>188400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>350100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>207300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>178200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>187400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>498500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>299900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>139200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>304200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>502500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>195200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-80400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-139600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-145600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-102800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-102800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-41500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-75800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-362600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-60500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-134800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>426500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-139400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-905300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-610900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>105600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-124500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-112200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-112100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-112700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-112200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-100100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-99600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-99400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-99300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-89800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-89700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-89800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-89900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-76600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>872700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-110800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-77900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-215500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-481600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-128900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-165600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-178600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-182300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>538200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-77600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-125100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-104300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-82200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-3300</v>
       </c>
       <c r="J101" s="3">
         <v>-3300</v>
       </c>
       <c r="K101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1123300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-118300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>112700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-79100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>126600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>53600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>190200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-124200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-189200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>84400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-60900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>194700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44220</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44129</v>
+      </c>
+      <c r="F7" s="2">
         <v>44038</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43947</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43856</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43765</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43674</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43583</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43492</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43401</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43310</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43219</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43128</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43037</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42946</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42764</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2461100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2420100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2381500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2422500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2384400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2501500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2290700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2344700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2360400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2524700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2359100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2330600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2331300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2492600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2207400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2187300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2280200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1962300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1959000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1945100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1916000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2007800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1857300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1875600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1872000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1991400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1904100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1837700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1829100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1981100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1755000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1700400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1727900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>450100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>457800</v>
+      </c>
+      <c r="F10" s="3">
         <v>422500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>477400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>468400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>493700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>433400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>469100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>488400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>533300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>455000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>492900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>502200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>511500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>452400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>486900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>552300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>17300</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>17300</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2193100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2143400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2131900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2129000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2103900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2180500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2034000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2032400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2054100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2205100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2102500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2028800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2024700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2163200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1927700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1871300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1924900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>276700</v>
+      </c>
+      <c r="F18" s="3">
         <v>249600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>293500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>280500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>321000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>256700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>312300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>306300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>319600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>256600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>301800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>306600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>329400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>279700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>316000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>355300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F20" s="3">
         <v>15500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>13300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>11300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>336400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>343000</v>
+      </c>
+      <c r="F21" s="3">
         <v>314900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>340600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>343100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>369800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>305700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>364400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>353100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>368600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>307000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>345100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>349000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>368400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>313900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>350900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>389100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>278700</v>
+      </c>
+      <c r="F23" s="3">
         <v>259400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>286500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>290200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>323700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>261000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>318000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>307000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>321500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>257700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>296900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>305200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>330000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>278000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>315800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>354800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F24" s="3">
         <v>56100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>58900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>47200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>68100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>61600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>35400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>65500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>132900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>47400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>59400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>64800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>111600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>95500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>104900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>119500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>222400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>234500</v>
+      </c>
+      <c r="F26" s="3">
         <v>203300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>227600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>243000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>255600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>199400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>282600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>241500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>188600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>210400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>237500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>240400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>218400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>182600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>210900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>235300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>234400</v>
+      </c>
+      <c r="F27" s="3">
         <v>203100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>227700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>242900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>255500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>199400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>282400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>241400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>188500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>210200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>237400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>240300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>218200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>182500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>210900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>235100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,23 +1904,23 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>72900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>11000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>5800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>62800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-15500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-13300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-11300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>234400</v>
+      </c>
+      <c r="F33" s="3">
         <v>203100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>227700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>242900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>255500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>199400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>282400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>241400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>261400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>221200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>243200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>303100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>218200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>182500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>210900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>235100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>234400</v>
+      </c>
+      <c r="F35" s="3">
         <v>203100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>227700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>242900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>255500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>199400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>282400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>241400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>261400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>221200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>243200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>303100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>218200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>182500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>210900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>235100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44220</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44129</v>
+      </c>
+      <c r="F38" s="2">
         <v>44038</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43947</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43856</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43765</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43674</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43583</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43492</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43401</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43310</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43219</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43128</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43037</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42946</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42764</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,87 +2399,95 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1751500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1714300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1729400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>606100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>724400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>672900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>560200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>639300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>512700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>459100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>269000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>261600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>385800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>444100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>633300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>548900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>609800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F42" s="3">
         <v>17600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>14800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>14700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>14100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2315,11 +2495,11 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2333,379 +2513,427 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>715700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>743900</v>
+      </c>
+      <c r="F43" s="3">
         <v>649600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>536400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>562700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>594300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>529300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>537700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>565200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>604400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>563800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>554300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>569300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>640700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>549000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>567300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>530900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1086700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1072800</v>
+      </c>
+      <c r="F44" s="3">
         <v>982400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1049000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1057300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1042400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1108500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1030600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>994400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>963500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1001000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1011200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>973200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>921000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1013200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>988400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>958100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="F45" s="3">
         <v>30900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>40600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>35800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>37100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>33900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>36400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>23000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>20500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>23700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>20700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>21500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>21100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>20800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3601700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3579100</v>
+      </c>
+      <c r="F46" s="3">
         <v>3409800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2248900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2395000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2361400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2246000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2250700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2050100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1854300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1850800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1948300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2026500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2217100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2125800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2119600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>308400</v>
+      </c>
+      <c r="F47" s="3">
         <v>298600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>303200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>290800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>289200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>279300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>276500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>277800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>273200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>276500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>265600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>262100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>242400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>248100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>246800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>243900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1898300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1951300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1855800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1809200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1755500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1629100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1516400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1494600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1483700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1512600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1410300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1353900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1293100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1203300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1054100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1043600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1035300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3691000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3689000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3696200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3706800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3515900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3515500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3525400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3527000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3921700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3921300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3971500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3983300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3980800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3146800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2705400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2707400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2709500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>462100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>380500</v>
+      </c>
+      <c r="F52" s="3">
         <v>340100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>327100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>333000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>313800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>387500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>387000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>371500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>385100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>382800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>376300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>374600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>356900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>283300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>262100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>258200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9957900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9908300</v>
+      </c>
+      <c r="F54" s="3">
         <v>9600500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8395200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8290100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8109000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7954600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7935700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8155400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8142300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7895400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7829700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7858800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6975900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6508000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6385700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6366400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>558500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>644600</v>
+      </c>
+      <c r="F57" s="3">
         <v>537500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>496500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>487700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>587200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>512100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>521700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>504300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>618800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>489000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>465600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>532800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>552700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>421200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>372400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>387700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,40 +3341,40 @@
         <v>258700</v>
       </c>
       <c r="E58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="G58" s="3">
         <v>258300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>8300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>374900</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="3">
+        <v>374900</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>95000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>185000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>255000</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3114,134 +3382,152 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600700</v>
+      </c>
+      <c r="F59" s="3">
         <v>630800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>569800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>527100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>517800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>560900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>530000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>556700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>520100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>512900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>497900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>535700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>505500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>456600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>452200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>532100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1417500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1504000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1427100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1324600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1023100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1105000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1073100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1051700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1435800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1138900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1096800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1148500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1323500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1058200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>877800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>824600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>919800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1043100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1044900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1046800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>56900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>309000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>250000</v>
       </c>
       <c r="I61" s="3">
         <v>250000</v>
@@ -3250,22 +3536,22 @@
         <v>250000</v>
       </c>
       <c r="K61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="L61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="M61" s="3">
         <v>624800</v>
       </c>
       <c r="N61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="O61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="P61" s="3">
         <v>624700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>250000</v>
       </c>
       <c r="Q61" s="3">
         <v>250000</v>
@@ -3276,61 +3562,73 @@
       <c r="S61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="U61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>941700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>929100</v>
+      </c>
+      <c r="F62" s="3">
         <v>854900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>847500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>862000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>828400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>740200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>732300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>763800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>773700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>778000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>764900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>755200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>728000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>627000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>624700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>621300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3407400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3482700</v>
+      </c>
+      <c r="F66" s="3">
         <v>3333000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2233100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2198300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2187500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2067500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2038400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2453700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2541500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2503800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2542500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2707500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2040000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1758300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1702600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1794400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6604500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6523300</v>
+      </c>
+      <c r="F72" s="3">
         <v>6414800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6336900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6246600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6128200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5984300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6003600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5856000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5730000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5615100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5504200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5366500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5162600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5033900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>4974500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>4866400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6550500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6425500</v>
+      </c>
+      <c r="F76" s="3">
         <v>6267400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6162100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6091800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5921500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5887100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5897300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5701700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5600800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5391600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5287200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5151300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4935900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4749700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4683100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4572000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44220</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44129</v>
+      </c>
+      <c r="F80" s="2">
         <v>44038</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43947</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43856</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43765</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43674</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43583</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43492</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43401</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43310</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43219</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43128</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43037</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42946</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42764</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>234400</v>
+      </c>
+      <c r="F81" s="3">
         <v>203100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>227700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>242900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>255500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>199400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>282400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>241400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>261400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>221200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>243200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>303100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>218200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>182500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>210900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>235100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F83" s="3">
         <v>49900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>50600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>49300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>43000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>41500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>40700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>40000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>40800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>40800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>41200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>39100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>34900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>32800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>32000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>31300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>249900</v>
+      </c>
+      <c r="F89" s="3">
         <v>329800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>359900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>188400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>350100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>207300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>178200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>187400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>498500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>299900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>139200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>304200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>502500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>250800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>85300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>195200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-88300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-80400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-58200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-139600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-66600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-48200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-39400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-145600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-102800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-87500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-53700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-102800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-78200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-75800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-82900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-362600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-60500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-134800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-69900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>426500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-139400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-109500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-81200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-905300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-610900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-41500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>105600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5315,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-125400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-125300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-124500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-112200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-112100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-112700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-112200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-100100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-99600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-99400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-99300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-89700</v>
       </c>
       <c r="P96" s="3">
         <v>-89800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-89900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-76600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="F100" s="3">
         <v>872700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-110800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-77900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-215500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-481600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-128900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-165600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-178600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-182300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>538200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-77600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-125100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-104300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-82200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F101" s="3">
         <v>3700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-6300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1123300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-118300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>51500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>112700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-79100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>126600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>53600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>190200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-124200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-58300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-189200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>84400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-60900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>194700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E7" s="2">
         <v>44220</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44129</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44038</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43947</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43856</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43765</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43674</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43583</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43492</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43401</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43310</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43219</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43128</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43037</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42946</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42764</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2606600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2461100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2420100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2381500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2422500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2384400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2501500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2290700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2344700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2360400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2524700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2359100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2330600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2331300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2492600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2207400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2187300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2280200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2130300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2011000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1962300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1959000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1945100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1916000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2007800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1857300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1875600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1872000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1991400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1904100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1837700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1829100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1981100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1755000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1700400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1727900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>476300</v>
+      </c>
+      <c r="E10" s="3">
         <v>450100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>457800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>422500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>477400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>468400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>493700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>433400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>469100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>488400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>533300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>455000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>492900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>502200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>511500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>452400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>486900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>552300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1088,11 +1107,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1100,11 +1119,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>17300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1112,23 +1131,26 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2317200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2193100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2143400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2131900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2129000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2103900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2180500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2034000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2032400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2054100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2205100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2102500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2028800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2024700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2163200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1927700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1871300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1924900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>289400</v>
+      </c>
+      <c r="E18" s="3">
         <v>268000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>276700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>249600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>293500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>280500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>321000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>256700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>312300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>306300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>319600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>256600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>301800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>306600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>329400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>279700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>316000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>355300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>17300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>13300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>352700</v>
+      </c>
+      <c r="E21" s="3">
         <v>336400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>343000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>314900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>340600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>343100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>369800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>305700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>364400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>353100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>368600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>307000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>345100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>349000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>368400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>313900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>350900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>389100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3000</v>
       </c>
       <c r="T22" s="3">
         <v>3000</v>
       </c>
       <c r="U22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E23" s="3">
         <v>277100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>278700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>259400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>286500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>290200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>323700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>261000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>318000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>307000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>321500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>257700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>296900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>305200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>330000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>278000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>315800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>354800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E24" s="3">
         <v>54700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>58900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>47200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>68100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>132900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>111600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>95500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>104900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>119500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E26" s="3">
         <v>222400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>234500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>203300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>227600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>243000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>255600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>199400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>282600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>241500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>188600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>210400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>237500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>240400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>218400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>182600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>210900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>235300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E27" s="3">
         <v>222300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>234400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>203100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>227700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>242900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>255500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>199400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>282400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>241400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>188500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>210200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>237400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>240300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>218200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>182500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>210900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>235100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1910,20 +1970,20 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>72900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>11000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>62800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-17300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-13300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E33" s="3">
         <v>222300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>234400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>203100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>227700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>242900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>255500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>199400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>282400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>241400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>261400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>221200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>243200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>303100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>218200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>182500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>210900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>235100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E35" s="3">
         <v>222300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>234400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>203100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>227700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>242900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>255500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>199400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>282400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>241400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>261400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>221200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>243200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>303100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>218200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>182500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>210900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>235100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E38" s="2">
         <v>44220</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44129</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44038</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43947</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43856</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43765</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43674</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43583</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43492</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43401</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43310</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43219</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43128</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43037</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42946</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42764</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,96 +2486,100 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1484500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1751500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1714300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1729400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>606100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>724400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>672900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>560200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>639300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>512700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>459100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>269000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>261600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>385800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>444100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>633300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>548900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>609800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E42" s="3">
         <v>17500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6700</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2501,8 +2590,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2519,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>731400</v>
+      </c>
+      <c r="E43" s="3">
         <v>715700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>743900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>649600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>536400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>562700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>594300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>529300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>537700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>565200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>604400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>563800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>554300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>569300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>640700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>549000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>567300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>530900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1229000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1086700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1072800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>982400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1049000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1057300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1042400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1108500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1030600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>994400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>963500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1001000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1011200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>973200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>921000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1013200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>988400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>958100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E45" s="3">
         <v>30300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>33900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3514300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3601700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3579100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3409800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2248900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2395000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2361400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2246000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2250700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2050100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1854300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1850800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1948300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2026500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2217100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2125800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2119600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>309300</v>
+      </c>
+      <c r="E47" s="3">
         <v>304900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>308400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>298600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>303200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>290800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>289200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>279300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>276500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>277800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>273200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>276500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>265600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>262100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>242400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>248100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>246800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>243900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1897500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1898300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1951300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1855800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1809200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1755500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1629100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1516400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1494600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1483700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1512600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1410300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1353900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1293100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1203300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1054100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1043600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1035300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3682400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3691000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3689000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3696200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3706800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3515900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3515500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3525400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3527000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3921700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3921300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3971500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3983300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3980800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3146800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2705400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2707400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2709500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>485500</v>
+      </c>
+      <c r="E52" s="3">
         <v>462100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>380500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>340100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>327100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>333000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>313800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>387500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>387000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>371500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>385100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>382800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>376300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>374600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>356900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>283300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>262100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>258200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9889000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9957900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9908300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9600500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8395200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8290100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8109000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7954600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7935700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8155400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8142300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7895400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7829700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7858800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6975900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6508000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6385700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6366400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,72 +3402,76 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>577400</v>
+      </c>
+      <c r="E57" s="3">
         <v>558500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>644600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>537500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>496500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>487700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>587200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>512100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>521700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>504300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>618800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>489000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>465600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>532800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>552700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>421200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>372400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>387700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>258700</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
         <v>258700</v>
@@ -3347,13 +3480,13 @@
         <v>258700</v>
       </c>
       <c r="G58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="H58" s="3">
         <v>258300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3361,23 +3494,23 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>374900</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>95000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>185000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>255000</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3388,149 +3521,158 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>588500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>630800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>569800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>527100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>517800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>560900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>530000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>556700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>520100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>512900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>497900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>535700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>505500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>456600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>452200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>532100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1175200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1417500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1504000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1427100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1324600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1023100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1105000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1073100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1051700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1435800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1138900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1096800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1148500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1323500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1058200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>877800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>824600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>919800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1040500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1043100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1044900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1046800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>56900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>309000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>250000</v>
       </c>
       <c r="J61" s="3">
         <v>250000</v>
@@ -3542,7 +3684,7 @@
         <v>250000</v>
       </c>
       <c r="M61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="N61" s="3">
         <v>624800</v>
@@ -3551,10 +3693,10 @@
         <v>624800</v>
       </c>
       <c r="P61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>624700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>250000</v>
       </c>
       <c r="R61" s="3">
         <v>250000</v>
@@ -3568,67 +3710,73 @@
       <c r="U61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>967500</v>
+      </c>
+      <c r="E62" s="3">
         <v>941700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>929100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>854900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>847500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>862000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>828400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>740200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>732300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>763800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>773700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>778000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>764900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>755200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>728000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>627000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>624700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>621300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3188300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3407400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3482700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3333000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2233100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2198300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2187500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2067500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2038400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2453700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2541500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2503800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2542500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2707500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2040000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1758300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1702600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1794400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6699300</v>
+      </c>
+      <c r="E72" s="3">
         <v>6604500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6523300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6414800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6336900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6246600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6128200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5984300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6003600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5856000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5730000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5615100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5504200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5366500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5162600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5033900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4974500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4866400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6550500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6425500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6267400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6162100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6091800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5921500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5887100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5897300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5701700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5600800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5391600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5287200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5151300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4935900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4749700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4683100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4572000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E80" s="2">
         <v>44220</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44129</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44038</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43947</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43856</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43765</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43674</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43583</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43492</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43401</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43310</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43219</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43128</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43037</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42946</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42764</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E81" s="3">
         <v>222300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>234400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>203100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>227700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>242900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>255500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>199400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>282400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>241400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>261400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>221200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>243200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>303100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>218200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>182500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>210900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>235100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E83" s="3">
         <v>51000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>40800</v>
       </c>
       <c r="N83" s="3">
         <v>40800</v>
       </c>
       <c r="O83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="P83" s="3">
         <v>41200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E89" s="3">
         <v>205700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>249900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>329800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>359900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>188400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>350100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>207300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>178200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>187400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>498500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>299900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>139200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>304200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>502500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>250800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>85300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>195200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-140700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-80400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-139600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-145600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-102800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-102800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-41500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-75800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-150300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-362600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-134800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>426500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-109500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-81200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-905300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-610900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>105600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-132300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-125500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-125400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-125300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-124500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-112200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-112100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-112700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-112200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-100100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-99600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-99400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-99300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-89800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-89700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-89800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-89900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-76600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-373700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-134800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-117800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>872700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-110800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-77900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-215500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-481600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-128900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-165600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-178600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-182300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>538200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-77600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-125100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-104300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-82200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>5600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-3300</v>
       </c>
       <c r="M101" s="3">
         <v>-3300</v>
       </c>
       <c r="N101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-267000</v>
+      </c>
+      <c r="E102" s="3">
         <v>37200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1123300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-118300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>112700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-79100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>126600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>190200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-124200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-58300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-189200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-60900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>194700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44402</v>
+      </c>
+      <c r="E7" s="2">
         <v>44311</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44220</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44129</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44038</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43947</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43856</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43765</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43674</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43583</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43492</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43401</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43310</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43219</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43128</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43037</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42946</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42764</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2863700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2606600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2461100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2420100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2381500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2422500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2384400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2501500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2290700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2344700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2360400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2524700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2359100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2330600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2331300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2492600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2207400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2187300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2280200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2440300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2130300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2011000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1962300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1959000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1945100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1916000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2007800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1857300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1875600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1872000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1991400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1904100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1837700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1829100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1981100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1755000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1700400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1727900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>423400</v>
+      </c>
+      <c r="E10" s="3">
         <v>476300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>450100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>457800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>422500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>477400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>468400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>493700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>433400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>469100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>488400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>533300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>455000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>492900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>502200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>511500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>452400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>486900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>552300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,11 +1118,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1110,11 +1130,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1122,11 +1142,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>17300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1134,23 +1154,26 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2656200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2317200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2193100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2143400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2131900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2129000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2103900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2180500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2034000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2032400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2054100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2205100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2102500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2028800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2024700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2163200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1927700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1871300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1924900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E18" s="3">
         <v>289400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>268000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>276700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>249600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>293500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>280500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>321000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>256700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>312300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>306300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>319600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>256600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>301800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>306600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>329400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>279700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>316000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>355300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E21" s="3">
         <v>352700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>336400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>343000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>314900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>340600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>343100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>369800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>305700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>364400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>353100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>368600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>307000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>345100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>349000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>368400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>313900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>350900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>389100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3000</v>
       </c>
       <c r="U22" s="3">
         <v>3000</v>
       </c>
       <c r="V22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E23" s="3">
         <v>292600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>277100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>278700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>259400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>286500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>290200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>323700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>261000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>318000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>307000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>321500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>257700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>296900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>305200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>330000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>278000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>315800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>354800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E24" s="3">
         <v>64700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>56100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>58900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>47200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>68100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>132900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>111600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>95500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>104900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>119500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E26" s="3">
         <v>227900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>222400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>203300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>227600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>243000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>255600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>282600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>241500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>188600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>210400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>237500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>240400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>218400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>182600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>210900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>235300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E27" s="3">
         <v>227900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>222300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>234400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>203100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>227700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>242900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>255500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>199400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>282400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>241400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>188500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>210200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>237400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>240300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>218200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>182500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>210900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>235100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1973,20 +2034,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>72900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>11000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>62800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-17300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E33" s="3">
         <v>227900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>222300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>234400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>203100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>227700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>242900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>255500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>282400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>241400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>261400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>221200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>243200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>303100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>218200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>182500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>210900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>235100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E35" s="3">
         <v>227900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>222300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>234400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>203100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>227700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>242900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>255500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>282400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>241400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>261400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>221200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>243200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>303100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>218200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>182500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>210900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>235100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44402</v>
+      </c>
+      <c r="E38" s="2">
         <v>44311</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44220</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44129</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44038</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43947</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43856</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43765</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43674</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43583</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43492</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43401</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43310</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43219</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43128</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43037</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42946</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42764</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,102 +2573,106 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>291400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1484500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1751500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1714300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1729400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>606100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>724400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>672900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>560200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>639300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>512700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>459100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>269000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>261600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>385800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>444100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>633300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>548900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>609800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E42" s="3">
         <v>17700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6700</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>912400</v>
+      </c>
+      <c r="E43" s="3">
         <v>731400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>715700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>743900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>649600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>536400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>562700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>594300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>529300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>537700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>565200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>604400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>563800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>554300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>569300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>640700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>549000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>567300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>530900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1426700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1229000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1086700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1072800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>982400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1049000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1057300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1042400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1108500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1030600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>994400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>963500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1001000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1011200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>973200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>921000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1013200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>988400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>958100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E45" s="3">
         <v>51600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2688700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3514300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3601700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3579100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3409800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2248900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2395000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2361400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2246000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2250700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2050100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1854300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1850800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1948300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2026500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2217100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2125800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2119600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E47" s="3">
         <v>309300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>304900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>308400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>298600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>303200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>290800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>289200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>279300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>276500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>277800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>273200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>276500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>265600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>262100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>242400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>248100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>246800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>243900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2067100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1897500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1898300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1951300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1855800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1809200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1755500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1629100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1516400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1494600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1483700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1512600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1410300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1353900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1293100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1203300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1054100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1043600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1035300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6770800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3682400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3691000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3689000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3696200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3706800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3515900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3515500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3525400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3527000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3921700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3921300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3971500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3983300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3980800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3146800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2705400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2707400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2709500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>501200</v>
+      </c>
+      <c r="E52" s="3">
         <v>485500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>462100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>380500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>340100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>327100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>333000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>313800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>387500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>387000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>371500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>385100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>382800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>376300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>374600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>356900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>283300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>262100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>258200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12332200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9889000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9957900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9908300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9600500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8395200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8290100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8109000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7954600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7935700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8155400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8142300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7895400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7829700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7858800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6975900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6508000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6385700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6366400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,78 +3533,82 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>654200</v>
+      </c>
+      <c r="E57" s="3">
         <v>577400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>558500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>644600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>537500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>496500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>487700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>587200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>512100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>521700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>504300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>618800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>489000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>465600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>532800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>552700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>421200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>372400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>387700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E58" s="3">
         <v>9300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>258700</v>
       </c>
       <c r="F58" s="3">
         <v>258700</v>
@@ -3483,13 +3617,13 @@
         <v>258700</v>
       </c>
       <c r="H58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="I58" s="3">
         <v>258300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3497,23 +3631,23 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>374900</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>95000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>185000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>255000</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3524,158 +3658,167 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>588300</v>
+      </c>
+      <c r="E59" s="3">
         <v>588500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>630800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>569800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>527100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>517800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>560900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>530000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>556700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>520100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>512900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>497900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>535700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>505500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>456600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>452200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>532100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1251200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1175200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1417500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1504000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1427100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1324600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1023100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1105000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1073100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1051700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1435800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1138900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1096800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1148500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1323500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1058200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>877800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>824600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>919800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3316300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1040500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1043100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1044900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1046800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>56900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>309000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>250000</v>
       </c>
       <c r="K61" s="3">
         <v>250000</v>
@@ -3687,7 +3830,7 @@
         <v>250000</v>
       </c>
       <c r="N61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="O61" s="3">
         <v>624800</v>
@@ -3696,10 +3839,10 @@
         <v>624800</v>
       </c>
       <c r="Q61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="R61" s="3">
         <v>624700</v>
-      </c>
-      <c r="R61" s="3">
-        <v>250000</v>
       </c>
       <c r="S61" s="3">
         <v>250000</v>
@@ -3713,70 +3856,76 @@
       <c r="V61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E62" s="3">
         <v>967500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>941700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>929100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>854900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>847500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>862000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>828400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>740200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>732300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>763800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>773700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>778000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>764900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>755200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>728000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>627000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>624700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>621300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5543900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3188300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3407400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3482700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3333000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2233100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2198300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2187500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2067500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2038400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2453700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2541500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2503800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2542500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2707500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2040000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1758300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1702600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1794400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6743700</v>
+      </c>
+      <c r="E72" s="3">
         <v>6699300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6604500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6523300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6414800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6336900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6246600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6128200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5984300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6003600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5856000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5730000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5615100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5504200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5366500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5162600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5033900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4974500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4866400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6788300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6700700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6550500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6425500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6267400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6162100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6091800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5921500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5887100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5897300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5701700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5600800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5391600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5287200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5151300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4935900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4749700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4683100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4572000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44402</v>
+      </c>
+      <c r="E80" s="2">
         <v>44311</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44220</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44129</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44038</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43947</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43856</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43765</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43674</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43583</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43492</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43401</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43310</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43219</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43128</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43037</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42946</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42764</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E81" s="3">
         <v>227900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>222300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>234400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>203100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>227700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>242900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>255500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>282400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>241400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>261400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>221200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>243200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>303100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>218200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>182500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>210900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>235100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E83" s="3">
         <v>52300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>51000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>40800</v>
       </c>
       <c r="O83" s="3">
         <v>40800</v>
       </c>
       <c r="P83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>41200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>31300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E89" s="3">
         <v>155600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>205700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>249900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>329800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>359900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>188400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>350100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>207300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>178200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>187400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>498500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>299900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>139200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>304200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>502500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>250800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>85300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>195200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-140700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-88300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-80400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-139600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-145600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-102800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-53700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-102800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-41500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-78200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-75800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3443100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-48000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-150300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-362600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-60500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-134800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>426500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-139400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-81200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-905300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-610900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>105600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-132400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-132300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-125500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-125400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-125300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-124500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-112200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-112100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-112700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-112200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-100100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-99600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-99400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-89800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-89700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-89800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-89900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-76600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2172400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-373700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-134800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-117800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>872700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-110800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-77900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-215500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-481600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-128900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-165600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-178600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>538200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-77600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-125100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-104300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-82200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3300</v>
       </c>
       <c r="N101" s="3">
         <v>-3300</v>
       </c>
       <c r="O101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1193200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-267000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1123300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-118300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>112700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-79100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>126600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>190200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-58300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-189200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-60900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>194700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,319 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44402</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44311</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44220</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44129</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44038</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43947</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43856</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43765</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43674</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43583</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43492</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43401</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43310</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43219</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43128</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43037</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42946</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42764</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3044400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3454800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2863700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2606600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2461100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2420100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2381500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2422500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2384400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2501500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2290700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2344700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2360400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2524700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2359100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2330600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2331300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2492600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2207400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2187300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2280200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2505600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2876700</v>
+      </c>
+      <c r="F9" s="3">
         <v>2440300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2130300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2011000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1962300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1959000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1945100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1916000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2007800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1857300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1875600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1872000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1991400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1904100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1837700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1829100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1981100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1755000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1700400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1727900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>538800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>578100</v>
+      </c>
+      <c r="F10" s="3">
         <v>423400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>476300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>450100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>457800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>422500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>477400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>468400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>493700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>433400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>469100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>488400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>533300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>455000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>492900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>502200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>511500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>452400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>486900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>552300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1001,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1068,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1139,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>17300</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>17300</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1281,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1309,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2724700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3097100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2656200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2317200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2193100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2143400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2131900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2129000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2103900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2180500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2034000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2032400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2054100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2205100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2102500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2028800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2024700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2163200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1927700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1871300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1924900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>319700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>357700</v>
+      </c>
+      <c r="F18" s="3">
         <v>207500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>289400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>268000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>276700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>249600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>293500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>280500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>321000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>256700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>312300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>306300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>319600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>256600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>301800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>306600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>329400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>279700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>316000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>355300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1478,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F20" s="3">
         <v>8400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>17300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>15500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>433700</v>
+      </c>
+      <c r="F21" s="3">
         <v>275100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>352700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>336400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>343000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>314900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>340600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>343100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>369800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>305700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>364400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>353100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>368600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>307000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>345100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>349000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>368400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>313900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>350900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>389100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F22" s="3">
         <v>11700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>8200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>5700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>3100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>3000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>352200</v>
+      </c>
+      <c r="F23" s="3">
         <v>204200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>292600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>277100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>278700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>259400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>286500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>290200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>323700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>261000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>318000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>307000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>321500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>257700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>296900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>305200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>330000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>278000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>315800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>354800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>70500</v>
+      </c>
+      <c r="F24" s="3">
         <v>27200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>64700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>54700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>44200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>56100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>58900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>47200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>68100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>61600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>65500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>132900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>47400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>59400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>64800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>111600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>95500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>104900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>119500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1900,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>239700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>281800</v>
+      </c>
+      <c r="F26" s="3">
         <v>177100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>227900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>222400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>234500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>203300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>227600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>243000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>255600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>199400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>282600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>241500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>188600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>210400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>237500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>240400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>218400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>182600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>210900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>235300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F27" s="3">
         <v>176900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>227900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>222300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>234400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>203100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>227700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>242900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>255500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>199400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>282400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>241400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>188500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>210200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>237400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>240300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>218200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>182500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>210900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>235100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,31 +2113,37 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2037,23 +2157,23 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>72900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>11000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>5800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>62800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2184,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2255,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2326,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-17300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-15500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F33" s="3">
         <v>176900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>227900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>222300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>234400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>203100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>227700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>242900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>255500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>199400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>282400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>241400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>261400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>221200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>243200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>303100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>218200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>182500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>210900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>235100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2539,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F35" s="3">
         <v>176900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>227900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>222300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>234400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>203100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>227700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>242900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>255500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>199400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>282400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>241400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>261400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>221200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>243200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>303100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>218200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>182500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>210900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>235100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44402</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44311</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44220</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44129</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44038</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43947</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43856</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43765</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43674</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43583</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43492</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43401</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43310</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43219</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43128</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43037</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42946</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42764</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2717,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,111 +2744,119 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>824400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>613500</v>
+      </c>
+      <c r="F41" s="3">
         <v>291400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1484500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1751500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1714300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1729400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>606100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>724400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>672900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>560200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>639300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>512700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>459100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>269000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>261600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>385800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>444100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>633300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>548900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>609800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F42" s="3">
         <v>18400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>17700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>17500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>17300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>17600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>16800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>14100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>6700</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2686,11 +2864,11 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2704,463 +2882,511 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>820400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>904000</v>
+      </c>
+      <c r="F43" s="3">
         <v>912400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>731400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>715700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>743900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>649600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>536400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>562700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>594300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>529300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>537700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>565200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>604400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>563800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>554300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>569300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>640700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>549000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>567300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>530900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1385700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1369200</v>
+      </c>
+      <c r="F44" s="3">
         <v>1426700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1229000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1086700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1072800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>982400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1049000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1057300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1042400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1108500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1030600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>994400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>963500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1011200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>973200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>921000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1013200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>988400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>958100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F45" s="3">
         <v>39800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>51600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>30300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>30900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>40600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>35800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>37100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>33900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>36400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>28400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>23000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>20500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>23700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>20000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>20700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>21500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>21100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>20800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3093400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2947800</v>
+      </c>
+      <c r="F46" s="3">
         <v>2688700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3514300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3601700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3579100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3409800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2248900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2395000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2361400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2246000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2250700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2050100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1854300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1850800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1948300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2026500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2217100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2125800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2119600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>299000</v>
+      </c>
+      <c r="F47" s="3">
         <v>304400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>309300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>304900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>308400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>298600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>303200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>290800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>289200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>279300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>276500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>277800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>273200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>276500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>265600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>262100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>242400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>248100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>246800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>243900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2101800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2181400</v>
+      </c>
+      <c r="F48" s="3">
         <v>2067100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1897500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1898300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1951300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1855800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1809200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1755500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1629100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1516400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1494600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1483700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1512600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1410300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1353900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1293100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1203300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1054100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1043600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1035300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6745300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6751400</v>
+      </c>
+      <c r="F49" s="3">
         <v>6770800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3682400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3691000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3689000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3696200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3706800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3515900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3515500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3525400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3527000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3921700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3921300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3971500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3983300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3980800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3146800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2705400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2707400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2709500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3450,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3521,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>516700</v>
+      </c>
+      <c r="F52" s="3">
         <v>501200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>485500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>462100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>380500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>340100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>327100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>333000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>313800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>387500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>387000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>371500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>385100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>382800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>376300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>374600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>356900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>283300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>262100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>258200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3663,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12827000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12696300</v>
+      </c>
+      <c r="F54" s="3">
         <v>12332200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9889000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9957900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9908300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9600500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8395200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8290100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8109000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7954600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7935700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8155400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8142300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7895400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7829700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7858800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6975900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6508000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6385700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6366400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3765,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,126 +3792,134 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>799400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>793300</v>
+      </c>
+      <c r="F57" s="3">
         <v>654200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>577400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>558500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>644600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>537500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>496500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>487700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>587200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>512100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>521700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>504300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>618800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>489000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>465600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>532800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>552700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>421200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>372400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>387700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F58" s="3">
         <v>8700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>258700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>258700</v>
       </c>
       <c r="H58" s="3">
         <v>258700</v>
       </c>
       <c r="I58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="K58" s="3">
         <v>258300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>8300</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>374900</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P58" s="3">
+        <v>374900</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>95000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>185000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>255000</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -3661,170 +3927,188 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>607100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>613600</v>
+      </c>
+      <c r="F59" s="3">
         <v>588300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>588500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>630800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>569800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>527100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>517800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>560900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>530000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>556700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>520100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>512900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>497900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>535700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>505500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>456600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>452200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>532100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1415700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1251200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1175200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1417500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1504000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1427100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1324600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1023100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1105000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1073100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1051700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1435800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1138900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1096800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1148500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1323500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1058200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>877800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>824600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>919800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3309200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3315100</v>
+      </c>
+      <c r="F61" s="3">
         <v>3316300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1040500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1043100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1044900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1046800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>56900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>309000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>250000</v>
       </c>
       <c r="M61" s="3">
         <v>250000</v>
@@ -3833,22 +4117,22 @@
         <v>250000</v>
       </c>
       <c r="O61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="P61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="Q61" s="3">
         <v>624800</v>
       </c>
       <c r="R61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="S61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="T61" s="3">
         <v>624700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>250000</v>
       </c>
       <c r="U61" s="3">
         <v>250000</v>
@@ -3859,73 +4143,85 @@
       <c r="W61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>996200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>987200</v>
+      </c>
+      <c r="F62" s="3">
         <v>971000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>967500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>941700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>929100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>854900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>847500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>862000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>828400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>740200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>732300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>763800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>773700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>778000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>764900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>755200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>728000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>627000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>624700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>621300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4285,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4356,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4427,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5726400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5723400</v>
+      </c>
+      <c r="F66" s="3">
         <v>5543900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3188300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3407400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3482700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3333000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2233100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2198300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2187500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2067500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2038400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2453700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2541500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2503800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2542500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2707500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2040000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1758300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1702600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1794400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4529,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4596,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4667,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4738,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4809,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6980500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6881900</v>
+      </c>
+      <c r="F72" s="3">
         <v>6743700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6699300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6604500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6523300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>6414800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6336900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6246600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6128200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5984300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6003600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5856000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5730000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5615100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>5504200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5366500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5162600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5033900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4974500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>4866400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4951,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5022,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5093,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6972900</v>
+      </c>
+      <c r="F76" s="3">
         <v>6788300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6700700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6550500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6425500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6267400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6162100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6091800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5921500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5887100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5897300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5701700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5600800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5391600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5287200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5151300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4935900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4749700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4683100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4572000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5235,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44402</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44311</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44220</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44129</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44038</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43947</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43856</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43765</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43674</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43583</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43492</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43401</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43310</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43219</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43128</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43037</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42946</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42764</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>281700</v>
+      </c>
+      <c r="F81" s="3">
         <v>176900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>227900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>222300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>234400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>203100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>227700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>242900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>255500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>199400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>282400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>241400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>261400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>221200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>243200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>303100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>218200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>182500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>210900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>235100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5413,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F83" s="3">
         <v>59200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>52300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>51000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>56000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>49900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>50600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>49300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>41500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>40700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>40000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>40800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>40800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>41200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>39100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>34900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>32800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>32000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>31300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5551,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5622,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5693,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5764,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5835,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>383800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>564100</v>
+      </c>
+      <c r="F89" s="3">
         <v>76500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>155600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>205700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>249900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>329800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>359900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>188400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>350100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>207300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>178200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>187400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>498500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>299900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>139200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>304200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>502500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>250800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>85300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>195200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5937,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-53800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-45200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-40400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-140700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-88300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-80400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-58200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-139600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-66600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-48200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-39400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-145600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-102800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-87500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-53700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-102800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-41500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-78200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-75800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6075,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6146,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3443100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-48000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-39300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-150300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-82900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-362600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-60500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-134800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-69900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>426500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-139400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-109500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-81200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-905300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-610900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-40400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-41500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>105600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6248,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-132400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-132300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-125500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-125400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-125300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-124500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-112200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-112100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-112700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-112200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-100100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-99600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-99300</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-89700</v>
       </c>
       <c r="T96" s="3">
         <v>-89800</v>
       </c>
       <c r="U96" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-89900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-76600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6386,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6457,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6528,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="F100" s="3">
         <v>2172400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-373700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-134800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-117800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>872700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-110800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-77900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-215500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-481600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-128900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-165600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-178600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-182300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>538200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-77600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-125100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-104300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-82200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-4800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>4600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-6300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>322200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1193200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-267000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>37200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-15100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1123300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-118300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>51500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>112700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-79100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>126600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>53600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>190200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-124200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-58300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-189200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>84400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-60900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>194700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44402</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44311</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44220</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44129</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44038</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43947</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43856</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43765</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43674</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43583</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43492</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43401</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43310</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43219</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43128</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43037</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42946</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42764</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3096600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3044400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3454800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2863700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2606600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2461100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2420100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2381500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2422500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2384400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2501500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2290700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2344700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2360400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2524700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2359100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2330600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2331300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2492600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2207400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2187300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2280200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2543100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2505600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2876700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2440300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2130300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2011000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1962300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1959000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1945100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1916000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2007800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1857300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1875600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1872000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1991400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1904100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1837700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1829100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1981100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1755000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1700400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1727900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E10" s="3">
         <v>538800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>578100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>423400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>476300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>450100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>457800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>422500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>477400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>468400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>493700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>433400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>469100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>488400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>533300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>455000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>492900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>502200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>511500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>452400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>486900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>552300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1161,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,17 +1190,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1189,11 +1208,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>17300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1201,23 +1220,26 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2761800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2724700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3097100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2656200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2317200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2193100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2143400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2131900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2129000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2103900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2180500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2034000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2032400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2054100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2205100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2102500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2028800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2024700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2163200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1927700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1871300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1924900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>334800</v>
+      </c>
+      <c r="E18" s="3">
         <v>319700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>357700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>207500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>289400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>268000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>276700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>249600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>293500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>280500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>321000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>256700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>312300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>306300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>319600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>256600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>301800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>306600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>329400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>279700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>316000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>355300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1512,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>398700</v>
+      </c>
+      <c r="E21" s="3">
         <v>387800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>433700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>275100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>352700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>336400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>343000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>314900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>340600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>343100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>369800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>305700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>364400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>353100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>368600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>307000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>345100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>349000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>368400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>313900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>350900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>389100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E22" s="3">
         <v>14600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>3000</v>
       </c>
       <c r="X22" s="3">
         <v>3000</v>
       </c>
       <c r="Y22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E23" s="3">
         <v>308900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>352200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>204200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>292600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>277100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>278700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>259400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>286500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>290200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>323700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>261000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>318000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>307000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>321500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>257700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>296900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>305200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>330000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>278000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>315800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>354800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E24" s="3">
         <v>69200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>70500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>64700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>44200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>56100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>61600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>132900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>47400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>111600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>95500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>104900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>119500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E26" s="3">
         <v>239700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>281800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>177100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>227900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>222400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>234500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>203300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>227600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>243000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>255600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>199400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>282600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>241500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>188600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>210400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>237500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>240400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>218400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>182600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>210900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>235300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E27" s="3">
         <v>239600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>281700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>176900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>227900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>222300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>234400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>203100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>227700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>242900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>255500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>199400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>282400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>241400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>188500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>210200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>237400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>240300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>218200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>182500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>210900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>235100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2145,8 +2205,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2163,20 +2223,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>72900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>11000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>5800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>62800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E33" s="3">
         <v>239600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>281700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>176900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>227900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>222300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>234400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>203100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>227700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>242900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>255500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>199400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>282400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>241400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>261400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>221200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>243200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>303100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>218200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>182500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>210900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>235100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E35" s="3">
         <v>239600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>281700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>176900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>227900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>222300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>234400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>203100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>227700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>242900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>255500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>199400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>282400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>241400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>261400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>221200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>243200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>303100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>218200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>182500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>210900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>235100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44402</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44311</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44220</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44129</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44038</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43947</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43856</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43765</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43674</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43583</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43492</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43401</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43310</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43219</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43128</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43037</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42946</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42764</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,120 +2831,124 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>861700</v>
+      </c>
+      <c r="E41" s="3">
         <v>824400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>613500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>291400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1484500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1751500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1714300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1729400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>606100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>724400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>672900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>560200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>639300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>512700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>459100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>269000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>261600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>385800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>444100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>633300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>548900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>609800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E42" s="3">
         <v>22200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6700</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2870,8 +2959,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2888,505 +2977,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>803100</v>
+      </c>
+      <c r="E43" s="3">
         <v>820400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>904000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>912400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>731400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>715700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>743900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>649600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>536400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>562700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>594300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>529300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>537700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>565200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>604400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>563800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>554300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>569300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>640700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>549000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>567300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>530900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1597000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1385700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1369200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1426700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1229000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1086700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1072800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>982400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1049000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1057300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1042400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1108500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1030600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>994400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>963500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1001000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1011200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>973200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>921000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1013200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>988400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>958100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E45" s="3">
         <v>40600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>30300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>23700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3373600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3093400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2947800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2688700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3514300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3601700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3579100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3409800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2248900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2395000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2361400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2246000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2250700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2050100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1854300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1850800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1948300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2026500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2217100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2125800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2119600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>275800</v>
+      </c>
+      <c r="E47" s="3">
         <v>286500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>299000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>304400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>309300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>304900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>308400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>298600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>303200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>290800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>289200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>279300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>276500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>277800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>273200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>276500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>265600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>262100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>242400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>248100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>246800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>243900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2123600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2101800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2181400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2067100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1897500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1898300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1951300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1855800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1809200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1755500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1629100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1516400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1494600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1483700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1512600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1410300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1353900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1293100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1203300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1054100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1043600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1035300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6750300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6745300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6751400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6770800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3682400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3691000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3689000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3696200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3706800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3515900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3515500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3525400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3527000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3921700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3921300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3971500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3983300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3980800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3146800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2705400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2707400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2709500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>598900</v>
+      </c>
+      <c r="E52" s="3">
         <v>600000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>516700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>501200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>485500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>462100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>380500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>340100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>327100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>333000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>313800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>387500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>387000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>371500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>385100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>382800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>376300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>374600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>356900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>283300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>262100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>258200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13122300</v>
+      </c>
+      <c r="E54" s="3">
         <v>12827000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12696300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12332200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9889000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9957900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9908300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9600500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8395200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8290100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8109000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7954600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7935700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8155400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8142300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7895400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7829700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7858800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6975900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6508000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6385700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6366400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,96 +3923,100 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>826700</v>
+      </c>
+      <c r="E57" s="3">
         <v>799400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>793300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>654200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>577400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>644600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>537500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>496500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>487700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>587200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>512100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>521700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>504300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>618800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>489000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>465600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>532800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>552700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>421200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>372400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>387700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
         <v>8800</v>
       </c>
       <c r="F58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G58" s="3">
         <v>8700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>258700</v>
       </c>
       <c r="I58" s="3">
         <v>258700</v>
@@ -3892,13 +4025,13 @@
         <v>258700</v>
       </c>
       <c r="K58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="L58" s="3">
         <v>258300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8300</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3906,23 +4039,23 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>374900</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>95000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>185000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>255000</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -3933,185 +4066,194 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>645800</v>
+      </c>
+      <c r="E59" s="3">
         <v>607100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>613600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>588300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>588500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>630800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>569800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>527100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>517800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>560900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>530000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>556700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>520100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>512900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>497900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>535700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>505500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>456600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>452200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>532100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1480700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1415300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1415700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1251200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1175200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1417500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1504000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1427100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1324600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1023100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1105000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1073100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1051700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1435800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1138900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1096800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1148500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1323500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1058200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>877800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>824600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>919800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3294100</v>
+      </c>
+      <c r="E61" s="3">
         <v>3309200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3315100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3316300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1040500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1043100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1044900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1046800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>56900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>309000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>250000</v>
       </c>
       <c r="N61" s="3">
         <v>250000</v>
@@ -4123,7 +4265,7 @@
         <v>250000</v>
       </c>
       <c r="Q61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="R61" s="3">
         <v>624800</v>
@@ -4132,10 +4274,10 @@
         <v>624800</v>
       </c>
       <c r="T61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="U61" s="3">
         <v>624700</v>
-      </c>
-      <c r="U61" s="3">
-        <v>250000</v>
       </c>
       <c r="V61" s="3">
         <v>250000</v>
@@ -4149,79 +4291,85 @@
       <c r="Y61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1002300</v>
+      </c>
+      <c r="E62" s="3">
         <v>996200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>987200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>971000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>967500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>941700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>929100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>854900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>847500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>862000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>828400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>740200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>732300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>763800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>773700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>778000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>764900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>755200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>728000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>627000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>624700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>621300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5782900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5726400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5723400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5543900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3188300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3407400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3482700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3333000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2233100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2198300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2187500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2067500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2038400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2453700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2541500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2503800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2542500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2707500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2040000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1758300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1702600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1794400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7100700</v>
+      </c>
+      <c r="E72" s="3">
         <v>6980500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6881900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6743700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6699300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6604500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6523300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6414800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6336900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6246600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6128200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5984300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6003600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5856000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5730000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5615100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5504200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5366500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5162600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5033900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4974500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4866400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7339400</v>
+      </c>
+      <c r="E76" s="3">
         <v>7100600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6972900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6788300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6700700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6550500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6425500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6267400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6162100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6091800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5921500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5887100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5897300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5701700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5600800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5391600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5287200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5151300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4935900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4749700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4683100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4572000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44402</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44311</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44220</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44129</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44038</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43947</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43856</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43765</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43674</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43583</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43492</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43401</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43310</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43219</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43128</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43037</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42946</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42764</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E81" s="3">
         <v>239600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>281700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>176900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>227900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>222300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>234400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>203100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>227700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>242900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>255500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>199400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>282400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>241400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>261400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>221200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>243200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>303100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>218200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>182500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>210900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>235100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E83" s="3">
         <v>64300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>65900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>59200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>40800</v>
       </c>
       <c r="R83" s="3">
         <v>40800</v>
       </c>
       <c r="S83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="T83" s="3">
         <v>41200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E89" s="3">
         <v>383800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>564100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>155600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>205700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>249900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>329800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>359900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>188400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>350100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>207300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>178200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>187400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>498500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>299900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>139200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>304200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>502500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>250800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>85300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>195200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-93100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-53800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-140700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-88300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-139600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-145600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-102800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-87500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-53700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-102800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-41500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-78200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-75800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-95500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3443100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-150300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-362600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-60500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-134800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>426500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-139400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-109500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-81200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-905300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-610900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>105600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,79 +6482,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-132900</v>
+        <v>-141200</v>
       </c>
       <c r="E96" s="3">
         <v>-132900</v>
       </c>
       <c r="F96" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-132400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-132300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-125500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-125400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-125300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-124500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-112200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-112100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-112700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-112200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-100100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-99600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-99400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-99300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-89800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-89700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-89800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-89900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-76600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-124000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-143400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2172400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-373700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-134800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-117800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>872700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-110800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-77900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-215500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-481600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-128900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-165600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-178600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-182300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>538200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-77600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-125100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-104300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-82200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-3300</v>
       </c>
       <c r="Q101" s="3">
         <v>-3300</v>
       </c>
       <c r="R101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="S101" s="3">
         <v>-4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E102" s="3">
         <v>210900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>322200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1193200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-267000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1123300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-118300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>112700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-79100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>126600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>53600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>190200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-124200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-58300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-189200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-60900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>194700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44682</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44591</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44402</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44311</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44220</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44129</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44038</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43947</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43856</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43765</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43674</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43583</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43492</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43401</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43310</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43219</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43128</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43037</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42946</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42764</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3034400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3096600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3044400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3454800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2863700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2606600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2461100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2420100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2381500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2422500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2384400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2501500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2290700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2344700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2360400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2524700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2359100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2330600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2331300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2492600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2207400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2187300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2280200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2528400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2543100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2505600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2876700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2440300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2130300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2011000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1962300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1959000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1945100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1916000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2007800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1857300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1875600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1872000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1991400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1904100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1837700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1829100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1981100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1755000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1700400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1727900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E10" s="3">
         <v>553500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>538800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>578100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>423400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>476300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>450100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>457800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>422500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>477400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>468400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>493700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>433400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>469100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>488400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>533300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>455000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>492900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>502200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>511500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>452400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>486900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>552300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1028,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1180,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,17 +1212,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1211,11 +1230,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>17300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1223,23 +1242,26 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1334,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2743400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2761800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2724700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3097100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2656200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2317200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2193100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2143400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2131900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2129000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2103900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2180500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2034000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2032400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2054100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2205100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2102500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2028800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2024700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2163200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1927700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1871300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1924900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E18" s="3">
         <v>334800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>319700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>357700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>207500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>289400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>268000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>276700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>249600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>293500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>280500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>321000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>256700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>312300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>306300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>319600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>256600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>301800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>306600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>329400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>279700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>316000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>355300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,378 +1545,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>17300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>370600</v>
+      </c>
+      <c r="E21" s="3">
         <v>398700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>387800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>433700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>275100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>352700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>336400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>343000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>314900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>340600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>343100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>369800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>305700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>364400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>353100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>368600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>307000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>345100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>349000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>368400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>313900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>350900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>389100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E22" s="3">
         <v>14700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>3000</v>
       </c>
       <c r="Y22" s="3">
         <v>3000</v>
       </c>
       <c r="Z22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>289800</v>
+      </c>
+      <c r="E23" s="3">
         <v>321900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>308900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>352200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>204200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>292600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>277100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>278700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>259400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>286500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>290200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>323700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>261000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>318000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>307000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>321500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>257700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>296900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>305200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>330000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>278000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>315800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>354800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E24" s="3">
         <v>60200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>69200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>70500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>64700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>54700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>44200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>132900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>47400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>111600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>95500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>104900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>119500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E26" s="3">
         <v>261700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>239700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>281800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>177100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>227900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>222400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>234500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>203300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>227600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>243000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>255600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>199400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>282600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>241500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>188600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>210400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>237500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>240400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>218400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>182600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>210900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>235300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E27" s="3">
         <v>261600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>239600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>281700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>176900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>227900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>222300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>234400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>203100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>227700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>242900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>255500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>199400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>282400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>241400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>188500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>210200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>237400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>240300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>218200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>182500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>210900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>235100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2208,8 +2268,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2226,20 +2286,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>72900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>11000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>5800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>62800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2253,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-17300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E33" s="3">
         <v>261600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>239600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>281700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>176900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>227900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>222300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>234400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>203100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>227700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>242900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>255500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>199400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>282400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>241400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>261400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>221200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>243200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>303100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>218200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>182500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>210900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>235100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E35" s="3">
         <v>261600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>239600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>281700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>176900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>227900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>222300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>234400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>203100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>227700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>242900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>255500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>199400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>282400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>241400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>261400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>221200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>243200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>303100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>218200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>182500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>210900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>235100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44682</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44591</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44402</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44311</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44220</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44129</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44038</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43947</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43856</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43765</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43674</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43583</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43492</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43401</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43310</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43219</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43128</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43037</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42946</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42764</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,126 +2917,130 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>850300</v>
+      </c>
+      <c r="E41" s="3">
         <v>861700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>824400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>613500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>291400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1484500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1751500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1714300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1729400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>606100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>724400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>672900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>560200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>639300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>512700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>459100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>269000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>261600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>385800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>444100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>633300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>548900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>609800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E42" s="3">
         <v>23500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6700</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2962,8 +3051,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2980,526 +3069,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>810600</v>
+      </c>
+      <c r="E43" s="3">
         <v>803100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>820400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>904000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>912400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>731400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>715700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>743900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>649600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>536400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>562700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>594300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>529300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>537700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>565200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>604400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>563800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>554300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>569300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>640700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>549000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>567300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>530900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1679200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1597000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1385700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1369200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1426700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1229000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1086700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1072800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>982400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1049000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1057300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1042400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1108500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1030600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>994400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>963500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1001000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1011200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>973200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>921000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1013200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>988400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>958100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E45" s="3">
         <v>88300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>23700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3403500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3373600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3093400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2947800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2688700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3514300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3601700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3579100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3409800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2248900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2395000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2361400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2246000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2250700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2050100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1854300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1850800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1948300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2026500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2217100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2125800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2119600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>277700</v>
+      </c>
+      <c r="E47" s="3">
         <v>275800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>286500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>299000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>304400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>309300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>304900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>308400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>298600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>303200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>290800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>289200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>279300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>276500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>277800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>273200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>276500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>265600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>262100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>242400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>248100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>246800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>243900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2118100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2123600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2101800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2181400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2067100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1897500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1898300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1951300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1855800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1809200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1755500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1629100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1516400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1494600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1483700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1512600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1410300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1353900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1293100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1203300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1054100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1043600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1035300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6737600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6750300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6745300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6751400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6770800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3682400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3691000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3689000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3696200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3706800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3515900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3515500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3525400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3527000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3921700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3921300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3971500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3983300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3980800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3146800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2705400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2707400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2709500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>603600</v>
+      </c>
+      <c r="E52" s="3">
         <v>598900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>516700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>501200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>485500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>462100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>380500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>340100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>327100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>333000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>313800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>387500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>387000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>371500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>385100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>382800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>376300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>374600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>356900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>283300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>262100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>258200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13140400</v>
+      </c>
+      <c r="E54" s="3">
         <v>13122300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12827000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12696300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12332200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9889000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9957900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9908300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9600500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8395200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8290100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8109000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7954600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7935700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8155400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8142300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7895400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7829700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7858800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6975900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6508000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6385700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6366400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,102 +4053,106 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>799200</v>
+      </c>
+      <c r="E57" s="3">
         <v>826700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>799400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>793300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>654200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>577400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>558500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>644600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>537500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>496500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>487700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>587200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>512100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>521700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>504300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>618800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>489000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>465600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>532800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>552700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>421200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>372400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>387700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>8100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>8800</v>
       </c>
       <c r="F58" s="3">
         <v>8800</v>
       </c>
       <c r="G58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H58" s="3">
         <v>8700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>258700</v>
       </c>
       <c r="J58" s="3">
         <v>258700</v>
@@ -4028,13 +4161,13 @@
         <v>258700</v>
       </c>
       <c r="L58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="M58" s="3">
         <v>258300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8300</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -4042,23 +4175,23 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>374900</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>95000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>185000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>255000</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4069,194 +4202,203 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>611900</v>
+      </c>
+      <c r="E59" s="3">
         <v>645800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>607100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>613600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>588300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>588500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>630800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>569800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>527100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>517800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>560900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>530000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>556700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>520100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>512900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>497900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>535700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>505500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>456600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>452200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>532100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1419900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1480700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1415300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1415700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1251200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1175200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1417500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1504000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1427100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1324600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1023100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1105000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1073100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1051700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1435800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1138900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1096800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1148500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1323500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1058200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>877800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>824600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>919800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3294300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3294100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3309200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3315100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3316300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1040500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1043100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1044900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1046800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>56900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>309000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>250000</v>
       </c>
       <c r="O61" s="3">
         <v>250000</v>
@@ -4268,7 +4410,7 @@
         <v>250000</v>
       </c>
       <c r="R61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="S61" s="3">
         <v>624800</v>
@@ -4277,10 +4419,10 @@
         <v>624800</v>
       </c>
       <c r="U61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="V61" s="3">
         <v>624700</v>
-      </c>
-      <c r="V61" s="3">
-        <v>250000</v>
       </c>
       <c r="W61" s="3">
         <v>250000</v>
@@ -4294,82 +4436,88 @@
       <c r="Z61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1059300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1002300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>996200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>987200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>971000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>967500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>941700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>929100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>854900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>847500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>862000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>828400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>740200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>732300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>763800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>773700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>778000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>764900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>755200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>728000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>627000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>624700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>621300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5778700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5782900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5726400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5723400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5543900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3188300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3407400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3482700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3333000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2233100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2198300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2187500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2067500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2038400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2453700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2541500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2503800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2542500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2707500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2040000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1758300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1702600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1794400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7177000</v>
+      </c>
+      <c r="E72" s="3">
         <v>7100700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6980500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6881900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6743700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6699300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6604500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6523300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6414800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6336900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6246600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6128200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5984300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6003600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5856000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5730000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5615100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5504200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5366500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5162600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5033900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4974500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4866400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7361700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7339400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7100600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6972900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6788300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6700700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6550500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6425500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6267400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6162100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6091800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5921500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5887100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5897300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5701700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5600800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5391600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5287200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5151300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4935900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4749700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4683100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4572000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44682</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44591</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44402</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44311</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44220</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44129</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44038</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43947</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43856</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43765</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43674</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43583</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43492</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43401</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43310</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43219</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43128</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43037</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42946</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42764</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E81" s="3">
         <v>261600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>239600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>281700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>176900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>227900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>222300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>234400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>203100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>227700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>242900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>255500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>199400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>282400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>241400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>261400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>221200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>243200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>303100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>218200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>182500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>210900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>235100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E83" s="3">
         <v>62200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>64300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>59200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>56000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>40800</v>
       </c>
       <c r="S83" s="3">
         <v>40800</v>
       </c>
       <c r="T83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="U83" s="3">
         <v>41200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>31300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E89" s="3">
         <v>193400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>383800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>564100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>76500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>155600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>205700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>249900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>329800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>359900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>188400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>350100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>207300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>178200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>187400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>498500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>299900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>139200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>304200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>502500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>250800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>85300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>195200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-93100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-53800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-140700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-80400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-139600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-145600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-102800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-87500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-53700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-102800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-41500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-78200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-75800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-95500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3443100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-39300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-150300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-362600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-60500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-134800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>426500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-139400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-109500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-81200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-905300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-610900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>105600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,82 +6715,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-141200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-132900</v>
       </c>
       <c r="F96" s="3">
         <v>-132900</v>
       </c>
       <c r="G96" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-132400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-132300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-125500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-125400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-125300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-124500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-112200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-112100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-112700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-112200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-100100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-99600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-99400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-99300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-89800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-89700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-89800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-89900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-76600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-140500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-80000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-124000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-143400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2172400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-373700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-134800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-117800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>872700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-110800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-77900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-215500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-481600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-128900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-165600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-178600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-182300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>538200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-77600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-125100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-104300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-82200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-10900</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-3300</v>
       </c>
       <c r="R101" s="3">
         <v>-3300</v>
       </c>
       <c r="S101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="T101" s="3">
         <v>-4400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>37300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>210900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>322200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1193200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-267000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1123300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-118300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>112700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-79100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>126600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>53600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>190200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-124200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-58300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-189200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>84400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-60900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>194700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,367 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44682</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44591</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44402</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44311</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44129</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44038</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43856</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43765</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43583</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43492</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43401</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43310</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43219</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43128</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43037</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42946</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42764</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2971000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3283500</v>
+      </c>
+      <c r="F8" s="3">
         <v>3034400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3096600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3044400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3454800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2863700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2606600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2461100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2420100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2381500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2422500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2384400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2501500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2290700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2344700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2360400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2524700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2359100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2330600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2331300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2492600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2207400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2187300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2280200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2475000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2717100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2528400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2543100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2505600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2876700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2440300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2130300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2011000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1962300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1959000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1945100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1916000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2007800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1857300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1875600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1872000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1991400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1904100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1837700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1829100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1981100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1755000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1700400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1727900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>566400</v>
+      </c>
+      <c r="F10" s="3">
         <v>506000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>553500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>538800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>578100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>423400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>476300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>450100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>457800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>422500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>477400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>468400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>493700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>433400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>469100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>488400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>533300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>455000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>492900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>502200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>511500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>452400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>486900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>552300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1053,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,8 +1132,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,8 +1215,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,53 +1253,59 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>17300</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>17300</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,8 +1381,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1413,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2681500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2916300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2743400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2761800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2724700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3097100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2656200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2317200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2193100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2143400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2131900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2129000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2103900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2180500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2034000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2032400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2054100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2205100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2102500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2028800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2024700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2163200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1927700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1871300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1924900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>289500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>367200</v>
+      </c>
+      <c r="F18" s="3">
         <v>291000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>334800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>319700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>357700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>207500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>289400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>268000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>276700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>249600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>293500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>280500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>321000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>256700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>312300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>306300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>319600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>256600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>301800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>306600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>329400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>279700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>316000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>355300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,393 +1610,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="3">
         <v>14400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>17300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>15500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>13300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>11300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>6800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>8300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>9500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>370400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>446300</v>
+      </c>
+      <c r="F21" s="3">
         <v>370600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>398700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>387800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>433700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>275100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>352700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>336400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>343000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>314900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>340600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>343100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>369800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>305700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>364400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>353100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>368600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>307000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>345100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>349000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>368400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>313900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>350900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>389100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F22" s="3">
         <v>15600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>14700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>11700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>5700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>6100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>6300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>8400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>7000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>3100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>3000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>3000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>281200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>357500</v>
+      </c>
+      <c r="F23" s="3">
         <v>289800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>321900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>308900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>352200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>204200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>292600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>277100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>278700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>259400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>286500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>290200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>323700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>261000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>318000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>307000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>321500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>257700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>296900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>305200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>330000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>278000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>315800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>354800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>77500</v>
+      </c>
+      <c r="F24" s="3">
         <v>71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>60200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>69200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>70500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>27200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>64700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>54700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>44200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>56100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>58900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>47200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>68100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>61600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>35400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>65500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>132900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>47400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>59400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>64800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>111600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>95500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>104900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>119500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2104,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F26" s="3">
         <v>218800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>261700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>239700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>281800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>177100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>227900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>222400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>234500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>203300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>227600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>243000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>255600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>199400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>282600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>241500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>188600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>210400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>237500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>240400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>218400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>182600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>210900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>235300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>279900</v>
+      </c>
+      <c r="F27" s="3">
         <v>218900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>261600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>239600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>281700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>176900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>227900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>222300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>234400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>203100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>227700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>242900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>255500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>199400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>282400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>241400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>188500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>210200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>237400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>240300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>218200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>182500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>210900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>235100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2353,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,11 +2391,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2289,23 +2409,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>72900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>11000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>5800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>62800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2316,8 +2436,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2519,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2602,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-14400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-17300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-15500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-13300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-11300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-6800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-8300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-9500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>279900</v>
+      </c>
+      <c r="F33" s="3">
         <v>218900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>261600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>239600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>281700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>176900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>227900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>222300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>234400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>203100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>227700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>242900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>255500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>199400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>282400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>241400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>261400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>221200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>243200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>303100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>218200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>182500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>210900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>235100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2851,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>279900</v>
+      </c>
+      <c r="F35" s="3">
         <v>218900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>261600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>239600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>281700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>176900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>227900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>222300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>234400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>203100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>227700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>242900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>255500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>199400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>282400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>241400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>261400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>221200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>243200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>303100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>218200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>182500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>210900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>235100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44864</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44682</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44591</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44402</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44311</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44129</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44038</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43856</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43765</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43583</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43492</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43401</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43310</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43219</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43128</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43037</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42946</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42764</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +3057,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,135 +3088,143 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>599800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>982100</v>
+      </c>
+      <c r="F41" s="3">
         <v>850300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>861700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>824400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>613500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>291400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1484500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1751500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1714300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1729400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>606100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>724400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>672900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>560200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>639300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>512700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>459100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>269000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>261600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>385800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>444100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>633300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>548900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>609800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F42" s="3">
         <v>18300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>23500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>22200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>21200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>18400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>17700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>17500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>17300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>17600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>16800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>14800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>14700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>6700</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3054,11 +3232,11 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3072,547 +3250,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>794400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>874800</v>
+      </c>
+      <c r="F43" s="3">
         <v>810600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>803100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>820400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>904000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>912400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>731400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>715700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>743900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>649600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>536400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>562700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>594300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>529300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>537700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>565200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>604400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>563800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>554300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>569300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>640700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>549000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>567300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>530900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1730100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1716100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1679200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1597000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1385700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1369200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1426700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1229000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1086700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1072800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>982400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1049000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1057300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1042400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1108500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1030600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>994400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>963500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1001000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1011200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>973200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>921000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1013200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>988400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>958100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F45" s="3">
         <v>45100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>88300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>40600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>39900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>39800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>51600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>30300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>30900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>40600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>35800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>37100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>33900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>36400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>28400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>23000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>20500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>23700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>20000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>20700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>21500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>21100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>20800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3195300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3637100</v>
+      </c>
+      <c r="F46" s="3">
         <v>3403500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3373600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3093400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2947800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2688700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3514300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3601700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3579100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3409800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2248900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2395000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2361400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2246000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2250700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2100700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2050100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1854300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1850800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1948300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2026500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2217100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2125800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2119600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>701600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F47" s="3">
         <v>277700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>275800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>286500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>299000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>304400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>309300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>304900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>308400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>298600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>303200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>290800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>289200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>279300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>276500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>277800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>273200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>276500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>265600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>262100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>242400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>248100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>246800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>243900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2124400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2141100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2118100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2123600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2101800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2181400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2067100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1897500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1898300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1951300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1855800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1809200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1755500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1629100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1516400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1494600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1483700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1512600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1410300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1353900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1293100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1203300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1054100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1043600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1035300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6726700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6728900</v>
+      </c>
+      <c r="F49" s="3">
         <v>6737600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6750300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6745300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6751400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6770800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3682400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3691000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3689000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3696200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3706800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3515900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3515500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3525400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3527000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3921700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3921300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3971500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3983300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3980800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>3146800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2705400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2707400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2709500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3914,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3997,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>535100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>528700</v>
+      </c>
+      <c r="F52" s="3">
         <v>603600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>598900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>600000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>516700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>501200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>485500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>462100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>380500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>340100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>327100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>333000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>313800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>387500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>387000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>371500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>385100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>382800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>376300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>374600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>356900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>283300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>262100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>258200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4163,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13283000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13306900</v>
+      </c>
+      <c r="F54" s="3">
         <v>13140400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13122300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12827000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12696300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12332200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9889000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9957900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9908300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9600500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8395200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8290100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8109000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7954600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7935700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8155400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8142300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7895400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7829700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7858800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6975900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6508000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6385700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>6366400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4281,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,150 +4312,158 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>764500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>816600</v>
+      </c>
+      <c r="F57" s="3">
         <v>799200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>826700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>799400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>793300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>654200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>577400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>558500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>644600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>537500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>496500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>487700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>587200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>512100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>521700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>504300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>618800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>489000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>465600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>532800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>552700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>421200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>372400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>387700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>8100</v>
       </c>
       <c r="F58" s="3">
         <v>8800</v>
       </c>
       <c r="G58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H58" s="3">
         <v>8800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>258700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>258700</v>
       </c>
       <c r="L58" s="3">
         <v>258700</v>
       </c>
       <c r="M58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="N58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="O58" s="3">
         <v>258300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8300</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>374900</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T58" s="3">
+        <v>374900</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>95000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>185000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>255000</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
@@ -4205,206 +4471,224 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>599900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>647900</v>
+      </c>
+      <c r="F59" s="3">
         <v>611900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>645800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>607100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>613600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>588300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>588500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>630800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>569800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>527100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>517800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>560900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>530000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>556700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>520100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>512900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>497900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>535700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>505500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>456600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>452200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>532100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1373400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1473300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1419900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1480700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1415300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1415700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1251200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1175200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1417500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1504000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1427100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1324600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1023100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1105000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1073100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1051700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1435800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1138900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1096800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1148500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1323500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1058200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>877800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>824600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>919800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3292600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3290500</v>
+      </c>
+      <c r="F61" s="3">
         <v>3294300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3294100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3309200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3315100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3316300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1040500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1043100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1044900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1046800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>56900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>309000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>250000</v>
       </c>
       <c r="Q61" s="3">
         <v>250000</v>
@@ -4413,22 +4697,22 @@
         <v>250000</v>
       </c>
       <c r="S61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="T61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="U61" s="3">
         <v>624800</v>
       </c>
       <c r="V61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="W61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="X61" s="3">
         <v>624700</v>
-      </c>
-      <c r="W61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>250000</v>
       </c>
       <c r="Y61" s="3">
         <v>250000</v>
@@ -4439,85 +4723,97 @@
       <c r="AA61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>998100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1002900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1059300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1002300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>996200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>987200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>971000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>967500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>941700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>929100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>854900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>847500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>862000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>828400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>740200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>732300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>763800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>773700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>778000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>764900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>755200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>728000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>627000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>624700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>621300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4889,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4972,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +5055,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5669100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5771600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5778700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5782900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5726400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5723400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5543900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3188300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3407400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3482700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3333000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2233100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2198300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2187500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2067500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2038400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2453700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2541500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2503800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2542500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2707500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2040000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1758300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1702600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1794400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5173,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5252,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5335,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5418,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5501,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7380700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7313400</v>
+      </c>
+      <c r="F72" s="3">
         <v>7177000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7100700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6980500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6881900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>6743700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6699300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6604500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6523300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6414800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6336900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6246600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6128200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>5984300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6003600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5856000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>5730000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5615100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5504200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5366500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5162600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5033900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>4974500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>4866400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5667,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5750,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5833,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7613900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7535300</v>
+      </c>
+      <c r="F76" s="3">
         <v>7361700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7339400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7100600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6972900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6788300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6700700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6550500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6425500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6267400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6162100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6091800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5921500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5887100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5897300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5701700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5600800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5391600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5287200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5151300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4935900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4749700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4683100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4572000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5999,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44864</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44682</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44591</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44402</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44311</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44129</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44038</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43856</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43765</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43583</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43492</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43401</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43310</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43219</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43128</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43037</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42946</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42764</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>279900</v>
+      </c>
+      <c r="F81" s="3">
         <v>218900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>261600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>239600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>281700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>176900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>227900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>222300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>234400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>203100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>227700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>242900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>255500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>199400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>282400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>241400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>261400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>221200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>243200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>303100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>218200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>182500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>210900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>235100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6205,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F83" s="3">
         <v>65100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>62200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>64300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>65900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>59200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>52300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>51000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>56000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>49900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>50600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>49300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>41500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>40700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>40000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>40800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>40800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>41200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>39100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>34900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>32800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>32000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>31300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6367,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6450,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6533,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6616,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6699,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>371800</v>
+      </c>
+      <c r="F89" s="3">
         <v>186000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>193400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>383800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>564100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>76500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>155600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>205700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>249900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>329800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>359900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>188400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>350100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>207300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>178200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>187400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>498500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>299900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>139200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>304200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>502500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>250800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>85300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>195200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6817,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-78500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-49700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-93100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-53800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-45200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-40400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-140700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-88300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-80400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-58200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-139600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-48200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-39400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-145600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-102800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-87500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-53700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-102800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-41500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-78200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-75800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6979,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +7062,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-451500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-46000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-76100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-49700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-95500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3443100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-48000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-39300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-150300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-82900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-362600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-60500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-134800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-69900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>426500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-139400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-109500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-81200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-905300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-610900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-40400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-41500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>105600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,85 +7180,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-141900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-141200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-132900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-132900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-132400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-132300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-125500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-125400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-125300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-124500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-112200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-112100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-112700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-112200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-100100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-99600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-99400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-99300</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-89700</v>
       </c>
       <c r="X96" s="3">
         <v>-89800</v>
       </c>
       <c r="Y96" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-89900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7342,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7425,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7508,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-140500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-80000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-124000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-143400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2172400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-373700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-134800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-117800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>872700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-110800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-77900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-215500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-481600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-128900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-165600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-178600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-182300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>538200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-77600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-125100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-104300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-82200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-4400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>4600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>3200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>2600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-382300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>131800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>37300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>210900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>322200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1193200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-267000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>37200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-15100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1123300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-118300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>51500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>112700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-79100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>126600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>53600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>190200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-124200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-58300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-189200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>84400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-60900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>194700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>35500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>HRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,391 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44955</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44864</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44682</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44591</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44402</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44311</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44129</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44038</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43856</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43765</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43583</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43492</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43401</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43310</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43219</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43128</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43037</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42946</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42764</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2963300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2977600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2971000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3283500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3034400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3096600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3044400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3454800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2863700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2606600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2461100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2420100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2381500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2422500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2384400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2501500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2290700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2344700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2360400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2524700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2359100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2330600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2331300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2492600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2207400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2187300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2280200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>2627900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2465300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2486200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2475000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2717100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2528400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2543100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2505600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2876700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2440300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2130300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2011000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1962300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1959000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1945100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1916000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2007800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1857300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1875600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1872000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1991400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1904100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1837700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1829100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1981100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1755000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1700400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1727900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>2029400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>491400</v>
+      </c>
+      <c r="F10" s="3">
         <v>496000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>566400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>506000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>553500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>538800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>578100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>423400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>476300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>450100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>457800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>422500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>477400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>468400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>493700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>433400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>469100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>488400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>533300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>455000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>492900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>502200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>511500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>452400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>486900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>552300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>598500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1079,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,8 +1164,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1221,8 +1253,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1259,53 +1297,59 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>17300</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>17300</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1387,8 +1431,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1465,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2746500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2681800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2681500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2916300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2743400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2761800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2724700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3097100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2656200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2317200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2193100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2143400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2131900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2129000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2103900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2180500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2034000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2032400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2054100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2205100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2102500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2028800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2024700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2163200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1927700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1871300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1924900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2262200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>216800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>295800</v>
+      </c>
+      <c r="F18" s="3">
         <v>289500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>367200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>291000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>334800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>319700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>357700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>207500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>289400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>268000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>276700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>249600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>293500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>280500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>321000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>256700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>312300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>306300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>319600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>256600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>301800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>306600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>329400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>279700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>316000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>355300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>365700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1612,423 +1676,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>10100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>14400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>10100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>17300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>10300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>15500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>13300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>7600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>11300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>6800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>8300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>9500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>4200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>2800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>2500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>367900</v>
+      </c>
+      <c r="F21" s="3">
         <v>370400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>446300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>370600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>398700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>387800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>433700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>275100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>352700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>336400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>343000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>314900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>340600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>343100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>369800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>305700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>364400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>353100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>368600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>307000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>345100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>349000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>368400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>313900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>350900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>389100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>403500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E22" s="3">
         <v>18300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G22" s="3">
         <v>17600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>15600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>14600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>8200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>6100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>6300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>8400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>7000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>3600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>3100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>3000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>3000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>207600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>278800</v>
+      </c>
+      <c r="F23" s="3">
         <v>281200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>357500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>289800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>321900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>308900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>352200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>204200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>292600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>277100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>278700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>259400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>286500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>290200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>323700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>261000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>318000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>307000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>321500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>257700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>296900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>305200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>330000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>278000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>315800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>354800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>364700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F24" s="3">
         <v>63600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>77500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>71000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>60200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>69200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>70500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>64700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>54700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>44200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>56100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>58900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>47200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>68100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>61600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>35400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>65500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>132900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>47400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>59400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>64800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>111600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>95500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>104900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>119500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>120500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,174 +2206,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>162600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>217200</v>
+      </c>
+      <c r="F26" s="3">
         <v>217700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>280000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>218800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>261700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>239700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>281800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>177100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>227900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>222400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>234500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>203300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>227600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>243000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>255600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>199400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>282600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>241500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>188600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>210400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>237500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>240400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>218400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>182600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>210900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>235300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>217200</v>
+      </c>
+      <c r="F27" s="3">
         <v>217700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>279900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>218900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>261600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>239600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>281700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>176900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>227900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>222300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>234400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>203100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>227700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>242900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>255500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>199400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>282400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>241400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>188500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>210200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>237400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>240300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>218200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>182500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>210900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>235100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2473,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2397,11 +2517,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2415,23 +2535,23 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>72900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>11000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>5800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>62800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2442,8 +2562,14 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2651,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2740,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-14400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-10100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-17300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-10300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-15500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-7600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-11300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-6800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-8300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-9500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>217200</v>
+      </c>
+      <c r="F33" s="3">
         <v>217700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>279900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>218900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>261600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>239600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>281700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>176900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>227900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>222300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>234400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>203100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>227700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>242900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>255500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>199400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>282400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>241400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>261400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>221200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>243200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>303100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>218200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>182500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>210900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>235100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +3007,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>217200</v>
+      </c>
+      <c r="F35" s="3">
         <v>217700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>279900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>218900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>261600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>239600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>281700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>176900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>227900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>222300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>234400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>203100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>227700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>242900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>255500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>199400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>282400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>241400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>261400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>221200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>243200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>303100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>218200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>182500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>210900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>235100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44955</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44864</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44682</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44591</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44402</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44311</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44129</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44038</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43856</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43765</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43583</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43492</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43401</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43310</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43219</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43128</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43037</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42946</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42764</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3227,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,147 +3260,155 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>669100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>580500</v>
+      </c>
+      <c r="F41" s="3">
         <v>599800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>982100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>850300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>861700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>824400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>613500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>291400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1484500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1751500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1714300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1729400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>606100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>724400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>672900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>560200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>639300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>512700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>459100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>269000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>261600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>385800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>444100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>633300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>548900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>609800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>415100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F42" s="3">
         <v>17800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>16100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>18300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>23500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>22200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>21200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>17700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>17500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>17300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>17600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>16800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>14700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>14100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>6700</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -3238,11 +3416,11 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3256,589 +3434,637 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>793700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>769100</v>
+      </c>
+      <c r="F43" s="3">
         <v>794400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>874800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>810600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>803100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>820400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>904000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>912400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>731400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>715700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>743900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>649600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>536400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>562700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>594300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>529300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>537700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>565200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>604400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>563800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>554300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>569300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>640700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>549000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>567300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>530900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>609600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1737900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1745800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1730100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1716100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1679200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1597000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1385700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1369200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1426700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1229000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1086700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1072800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>982400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1049000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1057300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1042400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1108500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1030600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>994400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>963500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1001000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1011200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>973200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>921000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1013200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>988400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>958100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>985700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="F45" s="3">
         <v>53300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>48000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>45100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>88300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>40600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>39900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>39800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>51600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>30300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>30900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>40600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>35800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>37100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>33900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>36400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>28400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>23000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>20500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>23700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>20000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>20700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>21500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>21100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>20800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3254800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3162600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3195300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3637100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3403500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3373600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3093400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2947800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2688700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3514300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3601700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3579100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3409800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2248900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2395000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2361400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2246000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2250700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2100700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2050100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1854300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1850800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1948300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2026500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2217100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2125800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2119600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>2029900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>743500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>742300</v>
+      </c>
+      <c r="F47" s="3">
         <v>701600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>271100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>277700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>275800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>286500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>299000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>304400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>309300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>304900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>308400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>298600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>303200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>290800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>289200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>279300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>276500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>277800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>273200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>276500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>265600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>262100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>242400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>248100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>246800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>243900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>239600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2131500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2119100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2124400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2141100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2118100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2123600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2101800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2181400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2067100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1897500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1898300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1951300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1855800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1809200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1755500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1629100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1516400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1494600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1483700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1512600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1410300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1353900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1293100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1203300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1054100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1043600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1035300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>1105400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6722400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6724500</v>
+      </c>
+      <c r="F49" s="3">
         <v>6726700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6728900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6737600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6750300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6745300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6751400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6770800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3682400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3691000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3689000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3696200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3706800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3515900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3515500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3525400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3527000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3921700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3921300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3971500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>3983300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>3980800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>3146800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2705400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2707400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2709500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>2737800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4146,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4235,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>574700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>567200</v>
+      </c>
+      <c r="F52" s="3">
         <v>535100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>528700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>603600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>598900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>516700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>501200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>485500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>462100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>380500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>340100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>327100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>333000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>313800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>387500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>387000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>371500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>385100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>382800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>376300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>374600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>356900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>283300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>262100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>258200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>257400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4413,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13426800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13315700</v>
+      </c>
+      <c r="F54" s="3">
         <v>13283000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13306900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13140400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13122300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12827000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12696300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12332200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9889000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9957900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9908300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9600500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8395200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8290100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8109000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7954600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7935700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8155400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8142300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7895400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7829700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7858800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6975900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>6508000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6385700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>6366400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>6370100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4539,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,162 +4572,170 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>703400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>750300</v>
+      </c>
+      <c r="F57" s="3">
         <v>764500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>816600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>799200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>826700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>799400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>793300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>654200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>577400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>558500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>644600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>537500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>496500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>487700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>587200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>512100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>521700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>504300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>618800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>489000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>465600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>532800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>552700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>421200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>372400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>387700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>481800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>947000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8100</v>
       </c>
       <c r="H58" s="3">
         <v>8800</v>
       </c>
       <c r="I58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J58" s="3">
         <v>8800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L58" s="3">
         <v>8700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>258700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>258700</v>
       </c>
       <c r="N58" s="3">
         <v>258700</v>
       </c>
       <c r="O58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>258700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>258300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>374900</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V58" s="3">
+        <v>374900</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>95000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>185000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>255000</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4477,224 +4743,242 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>670200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>546000</v>
+      </c>
+      <c r="F59" s="3">
         <v>599900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>647900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>611900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>645800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>607100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>613600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>588300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>588500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>630800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>569800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>527100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>517800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>560900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>530000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>556700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>520100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>512900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>497900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>535700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>505500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>456600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>452200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>532100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>571400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2320600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1305200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1373400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1473300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1419900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1480700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1415300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1415700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1251200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1175200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1417500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1504000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1427100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1324600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1023100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1105000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1073100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1051700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1435800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1138900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1096800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1148500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1323500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1058200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>877800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>824600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>919800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1053200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2360400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3294400</v>
+      </c>
+      <c r="F61" s="3">
         <v>3292600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3290500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3294300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3294100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3309200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3315100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3316300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1040500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1043100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1044900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1046800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>56900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>309000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>250000</v>
       </c>
       <c r="S61" s="3">
         <v>250000</v>
@@ -4703,22 +4987,22 @@
         <v>250000</v>
       </c>
       <c r="U61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="V61" s="3">
-        <v>624800</v>
+        <v>250000</v>
       </c>
       <c r="W61" s="3">
         <v>624800</v>
       </c>
       <c r="X61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>624800</v>
+      </c>
+      <c r="Z61" s="3">
         <v>624700</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>250000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>250000</v>
       </c>
       <c r="AA61" s="3">
         <v>250000</v>
@@ -4729,91 +5013,103 @@
       <c r="AC61" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>250000</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1027900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1024500</v>
+      </c>
+      <c r="F62" s="3">
         <v>998100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1002900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1059300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1002300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>996200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>987200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>971000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>967500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>941700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>929100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>854900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>847500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>862000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>828400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>740200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>732300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>763800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>773700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>778000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>764900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>755200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>728000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>627000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>624700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>621300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>615500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5191,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4978,8 +5280,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5369,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5713500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5629200</v>
+      </c>
+      <c r="F66" s="3">
         <v>5669100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5771600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5778700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5782900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5726400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5723400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5543900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3188300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3407400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3482700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3333000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2233100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2198300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2187500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2067500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2038400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2453700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2541500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2503800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2542500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2707500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2040000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1758300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1702600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1794400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1922100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5495,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5580,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5669,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5758,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5847,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7447600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7435300</v>
+      </c>
+      <c r="F72" s="3">
         <v>7380700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7313400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>7177000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7100700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>6980500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6881900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6743700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6699300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6604500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>6523300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6414800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6336900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6246600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>6128200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>5984300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>6003600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>5856000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>5730000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>5615100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>5504200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>5366500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>5162600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>5033900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>4974500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>4866400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>4736600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +6025,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +6114,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6203,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7713300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7686500</v>
+      </c>
+      <c r="F76" s="3">
         <v>7613900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7535300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7361700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7339400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7100600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6972900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6788300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6700700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6550500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6425500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6267400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6162100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6091800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5921500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5887100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5897300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5701700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5600800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5391600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5287200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5151300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4935900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4749700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4683100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>4572000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>4448000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6381,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44955</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44864</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44682</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44591</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44402</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44311</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44129</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44038</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43856</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43765</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43583</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43492</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43401</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43310</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43219</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43128</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43037</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42946</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42764</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>217200</v>
+      </c>
+      <c r="F81" s="3">
         <v>217700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>279900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>218900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>261600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>239600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>281700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>176900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>227900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>222300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>234400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>203100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>227700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>242900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>255500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>199400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>282400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>241400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>261400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>221200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>243200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>303100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>218200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>182500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>210900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>235100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>243900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6601,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>70800</v>
+      </c>
+      <c r="F83" s="3">
         <v>70900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>71200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>65100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>62200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>64300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>65900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>59200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>52300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>51000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>56000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>49900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>50600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>49300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>43000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>41500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>40700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>40000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>40800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>40800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>41200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>39100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>34900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>32800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>32000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>31300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6775,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6864,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6953,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +7042,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +7131,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>208100</v>
+      </c>
+      <c r="F89" s="3">
         <v>203600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>371800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>186000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>193400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>383800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>564100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>76500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>155600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>205700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>249900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>329800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>359900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>188400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>350100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>207300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>178200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>187400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>498500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>299900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>139200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>304200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>502500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>250800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>85300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>195200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7257,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-37100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-89700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-78500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-49700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-93100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-53800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-45200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-40400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-140700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-88300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-80400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-139600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-66600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-48200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-39400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-145600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-102800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-87500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-53700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-102800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-41500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-78200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-75800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-89700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7431,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7520,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-451500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-86200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-46000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-76100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-49700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-95500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3443100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-48000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-39300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-150300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-82900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-362600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-134800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-69900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>426500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-139400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-109500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-81200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-905300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-610900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-40400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-41500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>105600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-81100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,91 +7646,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-142000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-141900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-141900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-141200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-132900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-132900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-132400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-132300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-125500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-125400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-125300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-124500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-112200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-112100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-112700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-112200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-100100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-99600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-99400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-99300</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-89700</v>
       </c>
       <c r="Z96" s="3">
         <v>-89800</v>
       </c>
       <c r="AA96" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-89900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-76600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-76700</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7820,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7909,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,253 +7998,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-141600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-142200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-140500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-80000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-124000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-143400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2172400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-373700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-134800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-117800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>872700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-110800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-77900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-215500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-481600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-128900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-165600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-178600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-182300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>538200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-77600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-125100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-104300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-82200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-253300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F101" s="3">
         <v>7100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-11600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-10900</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-4400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>4600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>3200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>2600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-382300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>131800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>37300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>210900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>322200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1193200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-267000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>37200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-15100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1123300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-118300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>51500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>112700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-79100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>126600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>53600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>190200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>7400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-124200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-58300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-189200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>84400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-60900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>194700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>35500</v>
       </c>
     </row>
